--- a/sample_data/41612_2019_62_MOESM2_ESM_simplified.xlsx
+++ b/sample_data/41612_2019_62_MOESM2_ESM_simplified.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daven/Projects/EarthCube-Geochron/Sparrow/import-pipelines/cosmo/test-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeshan/Documents/github/sparrow-uw-cosmo/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F29E73-C1B0-704F-94C6-5F429E702219}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92060F94-849F-CE42-B32D-4B4260C78D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26780" windowHeight="17460" tabRatio="936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="26780" windowHeight="17460" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONUS_input" sheetId="19" r:id="rId1"/>
@@ -92,14 +92,8 @@
     <definedName name="yMin">[1]CosmoCalcVars!$A$56</definedName>
     <definedName name="Zero">[1]CosmoCalcVars!$A$53</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -108,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="168">
   <si>
     <t>SBO-SFF-07</t>
   </si>
@@ -597,6 +591,21 @@
   </si>
   <si>
     <t>St_Interr</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Lab-Std</t>
+  </si>
+  <si>
+    <t>Lab_date</t>
+  </si>
+  <si>
+    <t>Embargo_date</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1707,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1719,6 +1728,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1026" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1026" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1027">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3477,10 +3492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AE1AF7-AA38-4C4B-A483-9105C007B640}">
-  <dimension ref="A1:O135"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3488,7 +3503,7 @@
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -3534,66 +3549,88 @@
       <c r="O1" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="14" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41.339799999999997</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-106.3236</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3251</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="P1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.97834248000000001</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="11">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>2008</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="11">
+        <v>1001</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="M2" s="3">
-        <v>684058.73347470711</v>
-      </c>
-      <c r="N2" s="3">
-        <v>14526.896829350297</v>
+      <c r="M2" s="11">
+        <v>666666</v>
+      </c>
+      <c r="N2" s="11">
+        <v>11111</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2">
+        <v>1001</v>
+      </c>
+      <c r="S2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1">
-        <v>41.34</v>
+        <v>41.339799999999997</v>
       </c>
       <c r="C3" s="1">
-        <v>-106.32335999999999</v>
+        <v>-106.3236</v>
       </c>
       <c r="D3" s="1">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>115</v>
@@ -3605,7 +3642,7 @@
         <v>2.7</v>
       </c>
       <c r="H3" s="1">
-        <v>0.97825141199999999</v>
+        <v>0.97834248000000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -3620,18 +3657,20 @@
         <v>138</v>
       </c>
       <c r="M3" s="3">
-        <v>647727.18315241742</v>
+        <v>684058.73347470711</v>
       </c>
       <c r="N3" s="3">
-        <v>16629.510053845221</v>
+        <v>14526.896829350297</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1">
         <v>41.34</v>
@@ -3652,7 +3691,7 @@
         <v>2.7</v>
       </c>
       <c r="H4" s="1">
-        <v>0.97863188599999995</v>
+        <v>0.97825141199999999</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -3667,27 +3706,27 @@
         <v>138</v>
       </c>
       <c r="M4" s="3">
-        <v>637539.34801498195</v>
+        <v>647727.18315241742</v>
       </c>
       <c r="N4" s="3">
-        <v>17495.563941913868</v>
+        <v>16629.510053845221</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1">
-        <v>41.341099999999997</v>
+        <v>41.34</v>
       </c>
       <c r="C5" s="1">
-        <v>-106.32203</v>
+        <v>-106.32335999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>3260</v>
+        <v>3253</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>115</v>
@@ -3699,7 +3738,7 @@
         <v>2.7</v>
       </c>
       <c r="H5" s="1">
-        <v>0.98884164399999996</v>
+        <v>0.97863188599999995</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -3714,24 +3753,24 @@
         <v>138</v>
       </c>
       <c r="M5" s="3">
-        <v>623990.54947557603</v>
+        <v>637539.34801498195</v>
       </c>
       <c r="N5" s="3">
-        <v>26440.05802596212</v>
+        <v>17495.563941913868</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1">
-        <v>41.341200000000001</v>
+        <v>41.341099999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>-106.32187999999999</v>
+        <v>-106.32203</v>
       </c>
       <c r="D6" s="1">
         <v>3260</v>
@@ -3746,7 +3785,7 @@
         <v>2.7</v>
       </c>
       <c r="H6" s="1">
-        <v>0.98849067300000004</v>
+        <v>0.98884164399999996</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -3761,27 +3800,27 @@
         <v>138</v>
       </c>
       <c r="M6" s="3">
-        <v>658333.56779041432</v>
+        <v>623990.54947557603</v>
       </c>
       <c r="N6" s="3">
-        <v>27802.725575334425</v>
+        <v>26440.05802596212</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1">
-        <v>41.341949999999997</v>
+        <v>41.341200000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>-106.32170000000001</v>
+        <v>-106.32187999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>3253</v>
+        <v>3260</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>115</v>
@@ -3793,7 +3832,7 @@
         <v>2.7</v>
       </c>
       <c r="H7" s="1">
-        <v>0.98572784999999996</v>
+        <v>0.98849067300000004</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -3808,27 +3847,27 @@
         <v>138</v>
       </c>
       <c r="M7" s="3">
-        <v>651438.51085738221</v>
+        <v>658333.56779041432</v>
       </c>
       <c r="N7" s="3">
-        <v>20755.399744724833</v>
+        <v>27802.725575334425</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1">
-        <v>41.340600000000002</v>
+        <v>41.341949999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>-106.32575</v>
+        <v>-106.32170000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>3267</v>
+        <v>3253</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>115</v>
@@ -3840,7 +3879,7 @@
         <v>2.7</v>
       </c>
       <c r="H8" s="1">
-        <v>0.96714375600000002</v>
+        <v>0.98572784999999996</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -3855,27 +3894,27 @@
         <v>138</v>
       </c>
       <c r="M8" s="3">
-        <v>498359.80091086956</v>
+        <v>651438.51085738221</v>
       </c>
       <c r="N8" s="3">
-        <v>17280.16481574122</v>
+        <v>20755.399744724833</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
-        <v>41.34</v>
+        <v>41.340600000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>-106.3258</v>
+        <v>-106.32575</v>
       </c>
       <c r="D9" s="1">
-        <v>3276</v>
+        <v>3267</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>115</v>
@@ -3887,7 +3926,7 @@
         <v>2.7</v>
       </c>
       <c r="H9" s="1">
-        <v>0.95802056599999996</v>
+        <v>0.96714375600000002</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -3902,18 +3941,18 @@
         <v>138</v>
       </c>
       <c r="M9" s="3">
-        <v>485342.85614959424</v>
+        <v>498359.80091086956</v>
       </c>
       <c r="N9" s="3">
-        <v>14811.768515335898</v>
+        <v>17280.16481574122</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1">
         <v>41.34</v>
@@ -3934,7 +3973,7 @@
         <v>2.7</v>
       </c>
       <c r="H10" s="1">
-        <v>0.95620135699999997</v>
+        <v>0.95802056599999996</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -3949,18 +3988,18 @@
         <v>138</v>
       </c>
       <c r="M10" s="3">
-        <v>483318.99628240074</v>
+        <v>485342.85614959424</v>
       </c>
       <c r="N10" s="3">
-        <v>20576.621881216139</v>
+        <v>14811.768515335898</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1">
         <v>41.34</v>
@@ -3981,7 +4020,7 @@
         <v>2.7</v>
       </c>
       <c r="H11" s="1">
-        <v>0.95530701500000004</v>
+        <v>0.95620135699999997</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -3996,27 +4035,27 @@
         <v>138</v>
       </c>
       <c r="M11" s="3">
-        <v>455460.16888955544</v>
+        <v>483318.99628240074</v>
       </c>
       <c r="N11" s="3">
-        <v>19964.419046437004</v>
+        <v>20576.621881216139</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
-        <v>41.339350000000003</v>
+        <v>41.34</v>
       </c>
       <c r="C12" s="1">
-        <v>-106.32565</v>
+        <v>-106.3258</v>
       </c>
       <c r="D12" s="1">
-        <v>3265</v>
+        <v>3276</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>115</v>
@@ -4028,7 +4067,7 @@
         <v>2.7</v>
       </c>
       <c r="H12" s="1">
-        <v>0.96739621899999995</v>
+        <v>0.95530701500000004</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -4043,27 +4082,27 @@
         <v>138</v>
       </c>
       <c r="M12" s="3">
-        <v>695392.51194994594</v>
+        <v>455460.16888955544</v>
       </c>
       <c r="N12" s="3">
-        <v>28354.906019975766</v>
+        <v>19964.419046437004</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1">
-        <v>41.340600000000002</v>
+        <v>41.339350000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>-106.32447999999999</v>
+        <v>-106.32565</v>
       </c>
       <c r="D13" s="1">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>115</v>
@@ -4075,7 +4114,7 @@
         <v>2.7</v>
       </c>
       <c r="H13" s="1">
-        <v>0.97899797300000002</v>
+        <v>0.96739621899999995</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
@@ -4090,27 +4129,27 @@
         <v>138</v>
       </c>
       <c r="M13" s="3">
-        <v>485542.66212049528</v>
+        <v>695392.51194994594</v>
       </c>
       <c r="N13" s="3">
-        <v>21166.541484030902</v>
+        <v>28354.906019975766</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1">
-        <v>41.340299999999999</v>
+        <v>41.340600000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>-106.32442</v>
+        <v>-106.32447999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>3272</v>
+        <v>3261</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>115</v>
@@ -4122,7 +4161,7 @@
         <v>2.7</v>
       </c>
       <c r="H14" s="1">
-        <v>0.97990852699999997</v>
+        <v>0.97899797300000002</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -4137,18 +4176,18 @@
         <v>138</v>
       </c>
       <c r="M14" s="3">
-        <v>508717.5847090272</v>
+        <v>485542.66212049528</v>
       </c>
       <c r="N14" s="3">
-        <v>16718.39016362642</v>
+        <v>21166.541484030902</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1">
         <v>41.340299999999999</v>
@@ -4169,7 +4208,7 @@
         <v>2.7</v>
       </c>
       <c r="H15" s="1">
-        <v>0.97983644199999997</v>
+        <v>0.97990852699999997</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
@@ -4184,27 +4223,27 @@
         <v>138</v>
       </c>
       <c r="M15" s="3">
-        <v>539800.81654500542</v>
+        <v>508717.5847090272</v>
       </c>
       <c r="N15" s="3">
-        <v>16566.392861038606</v>
+        <v>16718.39016362642</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1">
-        <v>41.340200000000003</v>
+        <v>41.340299999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>-106.3246</v>
+        <v>-106.32442</v>
       </c>
       <c r="D16" s="1">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>115</v>
@@ -4216,7 +4255,7 @@
         <v>2.7</v>
       </c>
       <c r="H16" s="1">
-        <v>0.97842275099999998</v>
+        <v>0.97983644199999997</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -4231,10 +4270,10 @@
         <v>138</v>
       </c>
       <c r="M16" s="3">
-        <v>547224.74406735739</v>
+        <v>539800.81654500542</v>
       </c>
       <c r="N16" s="3">
-        <v>17614.724389076491</v>
+        <v>16566.392861038606</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>116</v>
@@ -4242,7 +4281,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1">
         <v>41.340200000000003</v>
@@ -4263,7 +4302,7 @@
         <v>2.7</v>
       </c>
       <c r="H17" s="1">
-        <v>0.97990852699999997</v>
+        <v>0.97842275099999998</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -4278,10 +4317,10 @@
         <v>138</v>
       </c>
       <c r="M17" s="3">
-        <v>530260.21120752022</v>
+        <v>547224.74406735739</v>
       </c>
       <c r="N17" s="3">
-        <v>20301.546175822128</v>
+        <v>17614.724389076491</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>116</v>
@@ -4289,16 +4328,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1">
-        <v>41.340049999999998</v>
+        <v>41.340200000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>-106.32465999999999</v>
+        <v>-106.3246</v>
       </c>
       <c r="D18" s="1">
-        <v>3277</v>
+        <v>3270</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>115</v>
@@ -4310,7 +4349,7 @@
         <v>2.7</v>
       </c>
       <c r="H18" s="1">
-        <v>0.98332225699999998</v>
+        <v>0.97990852699999997</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -4325,10 +4364,10 @@
         <v>138</v>
       </c>
       <c r="M18" s="3">
-        <v>532940.20920329448</v>
+        <v>530260.21120752022</v>
       </c>
       <c r="N18" s="3">
-        <v>18347.483707404957</v>
+        <v>20301.546175822128</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>116</v>
@@ -4336,16 +4375,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1">
-        <v>35.832900000000002</v>
+        <v>41.340049999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>-105.7513</v>
+        <v>-106.32465999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>3590</v>
+        <v>3277</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>115</v>
@@ -4354,10 +4393,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H19" s="1">
-        <v>0.97419197599999996</v>
+        <v>0.98332225699999998</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -4372,10 +4411,10 @@
         <v>138</v>
       </c>
       <c r="M19" s="3">
-        <v>680609.6105208738</v>
+        <v>532940.20920329448</v>
       </c>
       <c r="N19" s="3">
-        <v>28479.939914969153</v>
+        <v>18347.483707404957</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>116</v>
@@ -4383,7 +4422,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1">
         <v>35.832900000000002</v>
@@ -4419,10 +4458,10 @@
         <v>138</v>
       </c>
       <c r="M20" s="3">
-        <v>639434.45654607203</v>
+        <v>680609.6105208738</v>
       </c>
       <c r="N20" s="3">
-        <v>21203.35700383595</v>
+        <v>28479.939914969153</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>116</v>
@@ -4430,7 +4469,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1">
         <v>35.832900000000002</v>
@@ -4466,10 +4505,10 @@
         <v>138</v>
       </c>
       <c r="M21" s="3">
-        <v>667257.10731209314</v>
+        <v>639434.45654607203</v>
       </c>
       <c r="N21" s="3">
-        <v>27016.738775454178</v>
+        <v>21203.35700383595</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>116</v>
@@ -4477,13 +4516,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1">
-        <v>35.833500000000001</v>
+        <v>35.832900000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>-105.75109999999999</v>
+        <v>-105.7513</v>
       </c>
       <c r="D22" s="1">
         <v>3590</v>
@@ -4513,10 +4552,10 @@
         <v>138</v>
       </c>
       <c r="M22" s="3">
-        <v>666379.75542319857</v>
+        <v>667257.10731209314</v>
       </c>
       <c r="N22" s="3">
-        <v>19418.815446881734</v>
+        <v>27016.738775454178</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>116</v>
@@ -4524,7 +4563,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1">
         <v>35.833500000000001</v>
@@ -4560,10 +4599,10 @@
         <v>138</v>
       </c>
       <c r="M23" s="3">
-        <v>661177.93632025935</v>
+        <v>666379.75542319857</v>
       </c>
       <c r="N23" s="3">
-        <v>19812.412236193773</v>
+        <v>19418.815446881734</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>116</v>
@@ -4571,13 +4610,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1">
-        <v>35.834000000000003</v>
+        <v>35.833500000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>-105.7505</v>
+        <v>-105.75109999999999</v>
       </c>
       <c r="D24" s="1">
         <v>3590</v>
@@ -4592,7 +4631,7 @@
         <v>2.65</v>
       </c>
       <c r="H24" s="1">
-        <v>0.97419178500000003</v>
+        <v>0.97419197599999996</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -4607,10 +4646,10 @@
         <v>138</v>
       </c>
       <c r="M24" s="3">
-        <v>656195.00163898524</v>
+        <v>661177.93632025935</v>
       </c>
       <c r="N24" s="3">
-        <v>12230.138930224777</v>
+        <v>19812.412236193773</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>116</v>
@@ -4618,7 +4657,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1">
         <v>35.834000000000003</v>
@@ -4639,7 +4678,7 @@
         <v>2.65</v>
       </c>
       <c r="H25" s="1">
-        <v>0.97419197599999996</v>
+        <v>0.97419178500000003</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -4654,10 +4693,10 @@
         <v>138</v>
       </c>
       <c r="M25" s="3">
-        <v>637852.93875412631</v>
+        <v>656195.00163898524</v>
       </c>
       <c r="N25" s="3">
-        <v>11635.022048642191</v>
+        <v>12230.138930224777</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>116</v>
@@ -4665,16 +4704,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B26" s="1">
-        <v>41.340600000000002</v>
+        <v>35.834000000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>-106.32575</v>
+        <v>-105.7505</v>
       </c>
       <c r="D26" s="1">
-        <v>3267</v>
+        <v>3590</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>115</v>
@@ -4683,10 +4722,10 @@
         <v>2</v>
       </c>
       <c r="G26" s="1">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H26" s="1">
-        <v>0.96714375600000002</v>
+        <v>0.97419197599999996</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -4701,10 +4740,10 @@
         <v>138</v>
       </c>
       <c r="M26" s="3">
-        <v>447675.89367316308</v>
+        <v>637852.93875412631</v>
       </c>
       <c r="N26" s="3">
-        <v>10016.469124640609</v>
+        <v>11635.022048642191</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>116</v>
@@ -4712,16 +4751,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1">
-        <v>39.001300000000001</v>
+        <v>41.340600000000002</v>
       </c>
       <c r="C27" s="1">
-        <v>-114.30370000000001</v>
+        <v>-106.32575</v>
       </c>
       <c r="D27" s="1">
-        <v>3190</v>
+        <v>3267</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>115</v>
@@ -4733,7 +4772,7 @@
         <v>2.7</v>
       </c>
       <c r="H27" s="1">
-        <v>0.98304028300000001</v>
+        <v>0.96714375600000002</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -4748,10 +4787,10 @@
         <v>138</v>
       </c>
       <c r="M27" s="3">
-        <v>442568.35328254156</v>
+        <v>447675.89367316308</v>
       </c>
       <c r="N27" s="3">
-        <v>17916.021611178163</v>
+        <v>10016.469124640609</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>116</v>
@@ -4759,7 +4798,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>39.001300000000001</v>
@@ -4780,7 +4819,7 @@
         <v>2.7</v>
       </c>
       <c r="H28" s="1">
-        <v>0.98400413499999995</v>
+        <v>0.98304028300000001</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -4795,10 +4834,10 @@
         <v>138</v>
       </c>
       <c r="M28" s="3">
-        <v>529113.55944024108</v>
+        <v>442568.35328254156</v>
       </c>
       <c r="N28" s="3">
-        <v>17981.111910955067</v>
+        <v>17916.021611178163</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>116</v>
@@ -4806,7 +4845,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <v>39.001300000000001</v>
@@ -4827,7 +4866,7 @@
         <v>2.7</v>
       </c>
       <c r="H29" s="1">
-        <v>0.98428180300000001</v>
+        <v>0.98400413499999995</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -4842,10 +4881,10 @@
         <v>138</v>
       </c>
       <c r="M29" s="3">
-        <v>515519.02727703331</v>
+        <v>529113.55944024108</v>
       </c>
       <c r="N29" s="3">
-        <v>10697.531631855192</v>
+        <v>17981.111910955067</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>116</v>
@@ -4853,16 +4892,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>39.001399999999997</v>
+        <v>39.001300000000001</v>
       </c>
       <c r="C30" s="1">
-        <v>-114.3036</v>
+        <v>-114.30370000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>3180</v>
+        <v>3190</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>115</v>
@@ -4874,7 +4913,7 @@
         <v>2.7</v>
       </c>
       <c r="H30" s="1">
-        <v>0.98466193899999999</v>
+        <v>0.98428180300000001</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -4889,10 +4928,10 @@
         <v>138</v>
       </c>
       <c r="M30" s="3">
-        <v>492191.82521474996</v>
+        <v>515519.02727703331</v>
       </c>
       <c r="N30" s="3">
-        <v>13135.797455105689</v>
+        <v>10697.531631855192</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>116</v>
@@ -4900,7 +4939,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
         <v>39.001399999999997</v>
@@ -4921,7 +4960,7 @@
         <v>2.7</v>
       </c>
       <c r="H31" s="1">
-        <v>0.98429308699999996</v>
+        <v>0.98466193899999999</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -4936,10 +4975,10 @@
         <v>138</v>
       </c>
       <c r="M31" s="3">
-        <v>440221.99422575388</v>
+        <v>492191.82521474996</v>
       </c>
       <c r="N31" s="3">
-        <v>12713.979626350829</v>
+        <v>13135.797455105689</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>116</v>
@@ -4947,7 +4986,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <v>39.001399999999997</v>
@@ -4968,7 +5007,7 @@
         <v>2.7</v>
       </c>
       <c r="H32" s="1">
-        <v>0.98481529700000003</v>
+        <v>0.98429308699999996</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -4983,10 +5022,10 @@
         <v>138</v>
       </c>
       <c r="M32" s="3">
-        <v>480797.31757789443</v>
+        <v>440221.99422575388</v>
       </c>
       <c r="N32" s="3">
-        <v>12709.031160510045</v>
+        <v>12713.979626350829</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>116</v>
@@ -4994,16 +5033,16 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>35.835599999999999</v>
+        <v>39.001399999999997</v>
       </c>
       <c r="C33" s="1">
-        <v>-105.75149999999999</v>
+        <v>-114.3036</v>
       </c>
       <c r="D33" s="1">
-        <v>3605</v>
+        <v>3180</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>115</v>
@@ -5012,10 +5051,10 @@
         <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H33" s="1">
-        <v>0.96277829199999998</v>
+        <v>0.98481529700000003</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -5030,10 +5069,10 @@
         <v>138</v>
       </c>
       <c r="M33" s="3">
-        <v>664703.75305293151</v>
+        <v>480797.31757789443</v>
       </c>
       <c r="N33" s="3">
-        <v>9072.8217849801731</v>
+        <v>12709.031160510045</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>116</v>
@@ -5041,7 +5080,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <v>35.835599999999999</v>
@@ -5077,10 +5116,10 @@
         <v>138</v>
       </c>
       <c r="M34" s="3">
-        <v>693343.58836022683</v>
+        <v>664703.75305293151</v>
       </c>
       <c r="N34" s="3">
-        <v>9112.9472871934449</v>
+        <v>9072.8217849801731</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>116</v>
@@ -5088,7 +5127,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1">
         <v>35.835599999999999</v>
@@ -5124,10 +5163,10 @@
         <v>138</v>
       </c>
       <c r="M35" s="3">
-        <v>623066.25345408579</v>
+        <v>693343.58836022683</v>
       </c>
       <c r="N35" s="3">
-        <v>12137.622682761506</v>
+        <v>9112.9472871934449</v>
       </c>
       <c r="O35" s="1" t="s">
         <v>116</v>
@@ -5135,7 +5174,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1">
         <v>35.835599999999999</v>
@@ -5171,10 +5210,10 @@
         <v>138</v>
       </c>
       <c r="M36" s="3">
-        <v>170470.46765715998</v>
+        <v>623066.25345408579</v>
       </c>
       <c r="N36" s="3">
-        <v>4038.2386726580039</v>
+        <v>12137.622682761506</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>116</v>
@@ -5182,16 +5221,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
-        <v>35.835299999999997</v>
+        <v>35.835599999999999</v>
       </c>
       <c r="C37" s="1">
-        <v>-105.7512</v>
+        <v>-105.75149999999999</v>
       </c>
       <c r="D37" s="1">
-        <v>3598</v>
+        <v>3605</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -5203,7 +5242,7 @@
         <v>2.65</v>
       </c>
       <c r="H37" s="1">
-        <v>0.96248982999999999</v>
+        <v>0.96277829199999998</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -5218,10 +5257,10 @@
         <v>138</v>
       </c>
       <c r="M37" s="3">
-        <v>792584.48563969135</v>
+        <v>170470.46765715998</v>
       </c>
       <c r="N37" s="3">
-        <v>11883.830682627678</v>
+        <v>4038.2386726580039</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>116</v>
@@ -5229,13 +5268,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="1">
-        <v>35.8352</v>
+        <v>35.835299999999997</v>
       </c>
       <c r="C38" s="1">
-        <v>-105.7508</v>
+        <v>-105.7512</v>
       </c>
       <c r="D38" s="1">
         <v>3598</v>
@@ -5250,7 +5289,7 @@
         <v>2.65</v>
       </c>
       <c r="H38" s="1">
-        <v>0.96277829199999998</v>
+        <v>0.96248982999999999</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -5265,10 +5304,10 @@
         <v>138</v>
       </c>
       <c r="M38" s="3">
-        <v>724143.68419670686</v>
+        <v>792584.48563969135</v>
       </c>
       <c r="N38" s="3">
-        <v>15334.889603851694</v>
+        <v>11883.830682627678</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>116</v>
@@ -5276,16 +5315,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1">
-        <v>40.7057</v>
+        <v>35.8352</v>
       </c>
       <c r="C39" s="1">
-        <v>-110.8111</v>
+        <v>-105.7508</v>
       </c>
       <c r="D39" s="1">
-        <v>3351</v>
+        <v>3598</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>115</v>
@@ -5294,10 +5333,10 @@
         <v>2</v>
       </c>
       <c r="G39" s="1">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H39" s="1">
-        <v>0.99434587500000005</v>
+        <v>0.96277829199999998</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -5312,10 +5351,10 @@
         <v>138</v>
       </c>
       <c r="M39" s="3">
-        <v>651401.29792195559</v>
+        <v>724143.68419670686</v>
       </c>
       <c r="N39" s="3">
-        <v>9642.3997293316461</v>
+        <v>15334.889603851694</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>116</v>
@@ -5323,7 +5362,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="1">
         <v>40.7057</v>
@@ -5344,7 +5383,7 @@
         <v>2.7</v>
       </c>
       <c r="H40" s="1">
-        <v>0.99579391699999997</v>
+        <v>0.99434587500000005</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -5359,10 +5398,10 @@
         <v>138</v>
       </c>
       <c r="M40" s="3">
-        <v>659863.50818384811</v>
+        <v>651401.29792195559</v>
       </c>
       <c r="N40" s="3">
-        <v>9513.3469103610569</v>
+        <v>9642.3997293316461</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>116</v>
@@ -5370,7 +5409,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1">
         <v>40.7057</v>
@@ -5406,10 +5445,10 @@
         <v>138</v>
       </c>
       <c r="M41" s="3">
-        <v>681053.69423615839</v>
+        <v>659863.50818384811</v>
       </c>
       <c r="N41" s="3">
-        <v>25405.151557569821</v>
+        <v>9513.3469103610569</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>116</v>
@@ -5417,28 +5456,28 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1">
-        <v>40.705399999999997</v>
+        <v>40.7057</v>
       </c>
       <c r="C42" s="1">
-        <v>-110.8107</v>
+        <v>-110.8111</v>
       </c>
       <c r="D42" s="1">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
         <v>2.7</v>
       </c>
       <c r="H42" s="1">
-        <v>0.97411149200000002</v>
+        <v>0.99579391699999997</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -5453,10 +5492,10 @@
         <v>138</v>
       </c>
       <c r="M42" s="3">
-        <v>645941.12657460419</v>
+        <v>681053.69423615839</v>
       </c>
       <c r="N42" s="3">
-        <v>9421.4349146211189</v>
+        <v>25405.151557569821</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>116</v>
@@ -5464,28 +5503,28 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1">
-        <v>40.703600000000002</v>
+        <v>40.705399999999997</v>
       </c>
       <c r="C43" s="1">
-        <v>-110.81019999999999</v>
+        <v>-110.8107</v>
       </c>
       <c r="D43" s="1">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F43" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1">
         <v>2.7</v>
       </c>
       <c r="H43" s="1">
-        <v>0.99579391699999997</v>
+        <v>0.97411149200000002</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -5500,10 +5539,10 @@
         <v>138</v>
       </c>
       <c r="M43" s="3">
-        <v>637948.29841090308</v>
+        <v>645941.12657460419</v>
       </c>
       <c r="N43" s="3">
-        <v>13975.43439154</v>
+        <v>9421.4349146211189</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>116</v>
@@ -5511,7 +5550,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
         <v>40.703600000000002</v>
@@ -5532,7 +5571,7 @@
         <v>2.7</v>
       </c>
       <c r="H44" s="1">
-        <v>0.99222413099999995</v>
+        <v>0.99579391699999997</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -5547,10 +5586,10 @@
         <v>138</v>
       </c>
       <c r="M44" s="3">
-        <v>661824.92147970642</v>
+        <v>637948.29841090308</v>
       </c>
       <c r="N44" s="3">
-        <v>8744.772954775055</v>
+        <v>13975.43439154</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>116</v>
@@ -5558,16 +5597,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1">
-        <v>41.340600000000002</v>
+        <v>40.703600000000002</v>
       </c>
       <c r="C45" s="1">
-        <v>-106.32575</v>
+        <v>-110.81019999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>3267</v>
+        <v>3351</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>115</v>
@@ -5579,7 +5618,7 @@
         <v>2.7</v>
       </c>
       <c r="H45" s="1">
-        <v>0.96714375600000002</v>
+        <v>0.99222413099999995</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -5594,10 +5633,10 @@
         <v>138</v>
       </c>
       <c r="M45" s="3">
-        <v>462432.90895065112</v>
+        <v>661824.92147970642</v>
       </c>
       <c r="N45" s="3">
-        <v>12327.524559754514</v>
+        <v>8744.772954775055</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>116</v>
@@ -5641,10 +5680,10 @@
         <v>138</v>
       </c>
       <c r="M46" s="3">
-        <v>416144.84606250259</v>
+        <v>462432.90895065112</v>
       </c>
       <c r="N46" s="3">
-        <v>16284.568148482163</v>
+        <v>12327.524559754514</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>116</v>
@@ -5688,10 +5727,10 @@
         <v>138</v>
       </c>
       <c r="M47" s="3">
-        <v>429668.05667598743</v>
+        <v>416144.84606250259</v>
       </c>
       <c r="N47" s="3">
-        <v>16749.635201622939</v>
+        <v>16284.568148482163</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>116</v>
@@ -5699,16 +5738,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1">
-        <v>47.475900000000003</v>
+        <v>41.340600000000002</v>
       </c>
       <c r="C48" s="1">
-        <v>-120.80710000000001</v>
+        <v>-106.32575</v>
       </c>
       <c r="D48" s="1">
-        <v>2315</v>
+        <v>3267</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>115</v>
@@ -5717,10 +5756,10 @@
         <v>2</v>
       </c>
       <c r="G48" s="1">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H48" s="1">
-        <v>0.98</v>
+        <v>0.96714375600000002</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -5735,10 +5774,10 @@
         <v>138</v>
       </c>
       <c r="M48" s="3">
-        <v>321960.67245728662</v>
+        <v>429668.05667598743</v>
       </c>
       <c r="N48" s="3">
-        <v>15803.925053478017</v>
+        <v>16749.635201622939</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>116</v>
@@ -5746,16 +5785,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="1">
-        <v>47.475999999999999</v>
+        <v>47.475900000000003</v>
       </c>
       <c r="C49" s="1">
-        <v>-120.807</v>
+        <v>-120.80710000000001</v>
       </c>
       <c r="D49" s="1">
-        <v>2310</v>
+        <v>2315</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>115</v>
@@ -5782,10 +5821,10 @@
         <v>138</v>
       </c>
       <c r="M49" s="3">
-        <v>290547.91831923107</v>
+        <v>321960.67245728662</v>
       </c>
       <c r="N49" s="3">
-        <v>7597.4501109210769</v>
+        <v>15803.925053478017</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>116</v>
@@ -5793,7 +5832,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1">
         <v>47.475999999999999</v>
@@ -5829,10 +5868,10 @@
         <v>138</v>
       </c>
       <c r="M50" s="3">
-        <v>307464.13872073014</v>
+        <v>290547.91831923107</v>
       </c>
       <c r="N50" s="3">
-        <v>18040.452260142571</v>
+        <v>7597.4501109210769</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>116</v>
@@ -5840,13 +5879,13 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1">
-        <v>47.475700000000003</v>
+        <v>47.475999999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>-120.8074</v>
+        <v>-120.807</v>
       </c>
       <c r="D51" s="1">
         <v>2310</v>
@@ -5876,10 +5915,10 @@
         <v>138</v>
       </c>
       <c r="M51" s="3">
-        <v>313799.34061615699</v>
+        <v>307464.13872073014</v>
       </c>
       <c r="N51" s="3">
-        <v>11877.693871100671</v>
+        <v>18040.452260142571</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>116</v>
@@ -5887,7 +5926,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1">
         <v>47.475700000000003</v>
@@ -5923,10 +5962,10 @@
         <v>138</v>
       </c>
       <c r="M52" s="3">
-        <v>281959.82570497063</v>
+        <v>313799.34061615699</v>
       </c>
       <c r="N52" s="3">
-        <v>9172.5919831773299</v>
+        <v>11877.693871100671</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>116</v>
@@ -5934,16 +5973,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1">
-        <v>40.025700000000001</v>
+        <v>47.475700000000003</v>
       </c>
       <c r="C53" s="1">
-        <v>-105.6327</v>
+        <v>-120.8074</v>
       </c>
       <c r="D53" s="1">
-        <v>3480</v>
+        <v>2310</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>115</v>
@@ -5970,10 +6009,10 @@
         <v>138</v>
       </c>
       <c r="M53" s="3">
-        <v>687343.20247007557</v>
+        <v>281959.82570497063</v>
       </c>
       <c r="N53" s="3">
-        <v>32373.188006147906</v>
+        <v>9172.5919831773299</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>116</v>
@@ -5981,7 +6020,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>40.025700000000001</v>
@@ -6017,10 +6056,10 @@
         <v>138</v>
       </c>
       <c r="M54" s="3">
-        <v>462239.06110414071</v>
+        <v>687343.20247007557</v>
       </c>
       <c r="N54" s="3">
-        <v>58284.259560033104</v>
+        <v>32373.188006147906</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>116</v>
@@ -6028,7 +6067,7 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55" s="1">
         <v>40.025700000000001</v>
@@ -6064,10 +6103,10 @@
         <v>138</v>
       </c>
       <c r="M55" s="3">
-        <v>498587.95793943462</v>
+        <v>462239.06110414071</v>
       </c>
       <c r="N55" s="3">
-        <v>28856.700387013196</v>
+        <v>58284.259560033104</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>116</v>
@@ -6075,7 +6114,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56" s="1">
         <v>40.025700000000001</v>
@@ -6111,10 +6150,10 @@
         <v>138</v>
       </c>
       <c r="M56" s="3">
-        <v>429757.02945699508</v>
+        <v>498587.95793943462</v>
       </c>
       <c r="N56" s="3">
-        <v>15589.357373233837</v>
+        <v>28856.700387013196</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>116</v>
@@ -6122,7 +6161,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1">
         <v>40.025700000000001</v>
@@ -6158,10 +6197,10 @@
         <v>138</v>
       </c>
       <c r="M57" s="3">
-        <v>392898.23146045592</v>
+        <v>429757.02945699508</v>
       </c>
       <c r="N57" s="3">
-        <v>49289.616825061938</v>
+        <v>15589.357373233837</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>116</v>
@@ -6169,7 +6208,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" s="1">
         <v>40.025700000000001</v>
@@ -6205,10 +6244,10 @@
         <v>138</v>
       </c>
       <c r="M58" s="3">
-        <v>499445.64147445868</v>
+        <v>392898.23146045592</v>
       </c>
       <c r="N58" s="3">
-        <v>83131.55904160942</v>
+        <v>49289.616825061938</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>116</v>
@@ -6216,16 +6255,16 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1">
-        <v>45.602800000000002</v>
+        <v>40.025700000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>-111.9971</v>
+        <v>-105.6327</v>
       </c>
       <c r="D59" s="1">
-        <v>2765</v>
+        <v>3480</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>115</v>
@@ -6252,10 +6291,10 @@
         <v>138</v>
       </c>
       <c r="M59" s="3">
-        <v>462332.23015994817</v>
+        <v>499445.64147445868</v>
       </c>
       <c r="N59" s="3">
-        <v>22039.761826179816</v>
+        <v>83131.55904160942</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>116</v>
@@ -6263,7 +6302,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="1">
         <v>45.602800000000002</v>
@@ -6299,10 +6338,10 @@
         <v>138</v>
       </c>
       <c r="M60" s="3">
-        <v>468510.24379191844</v>
+        <v>462332.23015994817</v>
       </c>
       <c r="N60" s="3">
-        <v>13860.937106714251</v>
+        <v>22039.761826179816</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>116</v>
@@ -6310,7 +6349,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1">
         <v>45.602800000000002</v>
@@ -6346,10 +6385,10 @@
         <v>138</v>
       </c>
       <c r="M61" s="3">
-        <v>471820.93927098543</v>
+        <v>468510.24379191844</v>
       </c>
       <c r="N61" s="3">
-        <v>14386.418526035874</v>
+        <v>13860.937106714251</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>116</v>
@@ -6357,7 +6396,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="1">
         <v>45.602800000000002</v>
@@ -6393,10 +6432,10 @@
         <v>138</v>
       </c>
       <c r="M62" s="3">
-        <v>408744.97136678529</v>
+        <v>471820.93927098543</v>
       </c>
       <c r="N62" s="3">
-        <v>12209.721048172629</v>
+        <v>14386.418526035874</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>116</v>
@@ -6404,7 +6443,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" s="1">
         <v>45.602800000000002</v>
@@ -6440,10 +6479,10 @@
         <v>138</v>
       </c>
       <c r="M63" s="3">
-        <v>444574.20644931623</v>
+        <v>408744.97136678529</v>
       </c>
       <c r="N63" s="3">
-        <v>18907.476578006197</v>
+        <v>12209.721048172629</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>116</v>
@@ -6451,7 +6490,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1">
         <v>45.602800000000002</v>
@@ -6487,10 +6526,10 @@
         <v>138</v>
       </c>
       <c r="M64" s="3">
-        <v>475234.9431211768</v>
+        <v>444574.20644931623</v>
       </c>
       <c r="N64" s="3">
-        <v>13341.981190798197</v>
+        <v>18907.476578006197</v>
       </c>
       <c r="O64" s="1" t="s">
         <v>116</v>
@@ -6498,16 +6537,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="1">
-        <v>37.165399999999998</v>
+        <v>45.602800000000002</v>
       </c>
       <c r="C65" s="1">
-        <v>-118.62269999999999</v>
+        <v>-111.9971</v>
       </c>
       <c r="D65" s="1">
-        <v>3390</v>
+        <v>2765</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>115</v>
@@ -6534,10 +6573,10 @@
         <v>138</v>
       </c>
       <c r="M65" s="3">
-        <v>558583.69629895501</v>
+        <v>475234.9431211768</v>
       </c>
       <c r="N65" s="3">
-        <v>51127.638714769681</v>
+        <v>13341.981190798197</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>116</v>
@@ -6545,7 +6584,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="1">
         <v>37.165399999999998</v>
@@ -6581,10 +6620,10 @@
         <v>138</v>
       </c>
       <c r="M66" s="3">
-        <v>258604.23504914448</v>
+        <v>558583.69629895501</v>
       </c>
       <c r="N66" s="3">
-        <v>7743.0591319031546</v>
+        <v>51127.638714769681</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>116</v>
@@ -6592,7 +6631,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="1">
         <v>37.165399999999998</v>
@@ -6628,10 +6667,10 @@
         <v>138</v>
       </c>
       <c r="M67" s="3">
-        <v>548687.93510124052</v>
+        <v>258604.23504914448</v>
       </c>
       <c r="N67" s="3">
-        <v>20866.846723357525</v>
+        <v>7743.0591319031546</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>116</v>
@@ -6639,16 +6678,16 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1">
-        <v>37.165599999999998</v>
+        <v>37.165399999999998</v>
       </c>
       <c r="C68" s="1">
-        <v>-118.6228</v>
+        <v>-118.62269999999999</v>
       </c>
       <c r="D68" s="1">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>115</v>
@@ -6675,10 +6714,10 @@
         <v>138</v>
       </c>
       <c r="M68" s="3">
-        <v>502926.45707887853</v>
+        <v>548687.93510124052</v>
       </c>
       <c r="N68" s="3">
-        <v>23930.445207399913</v>
+        <v>20866.846723357525</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>116</v>
@@ -6686,7 +6725,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" s="1">
         <v>37.165599999999998</v>
@@ -6722,10 +6761,10 @@
         <v>138</v>
       </c>
       <c r="M69" s="3">
-        <v>496744.02489011956</v>
+        <v>502926.45707887853</v>
       </c>
       <c r="N69" s="3">
-        <v>22954.398810456572</v>
+        <v>23930.445207399913</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>116</v>
@@ -6733,16 +6772,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" s="1">
-        <v>37.165399999999998</v>
+        <v>37.165599999999998</v>
       </c>
       <c r="C70" s="1">
-        <v>-118.62269999999999</v>
+        <v>-118.6228</v>
       </c>
       <c r="D70" s="1">
-        <v>3390</v>
+        <v>3380</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>115</v>
@@ -6769,10 +6808,10 @@
         <v>138</v>
       </c>
       <c r="M70" s="3">
-        <v>494337.74432800309</v>
+        <v>496744.02489011956</v>
       </c>
       <c r="N70" s="3">
-        <v>21665.850831915654</v>
+        <v>22954.398810456572</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>116</v>
@@ -6780,7 +6819,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" s="1">
         <v>37.165399999999998</v>
@@ -6816,10 +6855,10 @@
         <v>138</v>
       </c>
       <c r="M71" s="3">
-        <v>517528.02269663371</v>
+        <v>494337.74432800309</v>
       </c>
       <c r="N71" s="3">
-        <v>15654.141858124831</v>
+        <v>21665.850831915654</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>116</v>
@@ -6827,7 +6866,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="1">
         <v>37.165399999999998</v>
@@ -6863,10 +6902,10 @@
         <v>138</v>
       </c>
       <c r="M72" s="3">
-        <v>347136.7800488458</v>
+        <v>517528.02269663371</v>
       </c>
       <c r="N72" s="3">
-        <v>15494.262615676616</v>
+        <v>15654.141858124831</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>116</v>
@@ -6874,16 +6913,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" s="1">
-        <v>40.025700000000001</v>
+        <v>37.165399999999998</v>
       </c>
       <c r="C73" s="1">
-        <v>-105.6297</v>
+        <v>-118.62269999999999</v>
       </c>
       <c r="D73" s="1">
-        <v>3470</v>
+        <v>3390</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>115</v>
@@ -6910,10 +6949,10 @@
         <v>138</v>
       </c>
       <c r="M73" s="3">
-        <v>213086.58346671169</v>
+        <v>347136.7800488458</v>
       </c>
       <c r="N73" s="3">
-        <v>62161.763043499137</v>
+        <v>15494.262615676616</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>116</v>
@@ -6921,7 +6960,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="1">
         <v>40.025700000000001</v>
@@ -6957,10 +6996,10 @@
         <v>138</v>
       </c>
       <c r="M74" s="3">
-        <v>578671.69217723061</v>
+        <v>213086.58346671169</v>
       </c>
       <c r="N74" s="3">
-        <v>134610.01275655566</v>
+        <v>62161.763043499137</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>116</v>
@@ -6968,7 +7007,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B75" s="1">
         <v>40.025700000000001</v>
@@ -7004,10 +7043,10 @@
         <v>138</v>
       </c>
       <c r="M75" s="3">
-        <v>372283.20776861731</v>
+        <v>578671.69217723061</v>
       </c>
       <c r="N75" s="3">
-        <v>45474.398327324285</v>
+        <v>134610.01275655566</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>116</v>
@@ -7015,7 +7054,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" s="1">
         <v>40.025700000000001</v>
@@ -7051,10 +7090,10 @@
         <v>138</v>
       </c>
       <c r="M76" s="3">
-        <v>528042.62384854234</v>
+        <v>372283.20776861731</v>
       </c>
       <c r="N76" s="3">
-        <v>105878.54720783798</v>
+        <v>45474.398327324285</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>116</v>
@@ -7062,7 +7101,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77" s="1">
         <v>40.025700000000001</v>
@@ -7098,10 +7137,10 @@
         <v>138</v>
       </c>
       <c r="M77" s="3">
-        <v>575875.89928189479</v>
+        <v>528042.62384854234</v>
       </c>
       <c r="N77" s="3">
-        <v>29936.766527757209</v>
+        <v>105878.54720783798</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>116</v>
@@ -7109,7 +7148,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1">
         <v>40.025700000000001</v>
@@ -7145,10 +7184,10 @@
         <v>138</v>
       </c>
       <c r="M78" s="3">
-        <v>444245.98404966696</v>
+        <v>575875.89928189479</v>
       </c>
       <c r="N78" s="3">
-        <v>24525.859770309926</v>
+        <v>29936.766527757209</v>
       </c>
       <c r="O78" s="1" t="s">
         <v>116</v>
@@ -7156,7 +7195,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" s="1">
         <v>40.025700000000001</v>
@@ -7192,10 +7231,10 @@
         <v>138</v>
       </c>
       <c r="M79" s="3">
-        <v>497021.53836170281</v>
+        <v>444245.98404966696</v>
       </c>
       <c r="N79" s="3">
-        <v>29732.936255848439</v>
+        <v>24525.859770309926</v>
       </c>
       <c r="O79" s="1" t="s">
         <v>116</v>
@@ -7203,16 +7242,16 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80" s="1">
-        <v>42.720399999999998</v>
+        <v>40.025700000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>-109.1835</v>
+        <v>-105.6297</v>
       </c>
       <c r="D80" s="1">
-        <v>3253</v>
+        <v>3470</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>115</v>
@@ -7224,7 +7263,7 @@
         <v>2.65</v>
       </c>
       <c r="H80" s="1">
-        <v>0.98061150699999999</v>
+        <v>0.98</v>
       </c>
       <c r="I80" s="1">
         <v>0</v>
@@ -7239,10 +7278,10 @@
         <v>138</v>
       </c>
       <c r="M80" s="3">
-        <v>653751.33135956363</v>
+        <v>497021.53836170281</v>
       </c>
       <c r="N80" s="3">
-        <v>13308.161870108936</v>
+        <v>29732.936255848439</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>116</v>
@@ -7250,7 +7289,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1">
         <v>42.720399999999998</v>
@@ -7271,7 +7310,7 @@
         <v>2.65</v>
       </c>
       <c r="H81" s="1">
-        <v>0.98749635199999997</v>
+        <v>0.98061150699999999</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -7286,10 +7325,10 @@
         <v>138</v>
       </c>
       <c r="M81" s="3">
-        <v>689383.55263020762</v>
+        <v>653751.33135956363</v>
       </c>
       <c r="N81" s="3">
-        <v>20321.459911371734</v>
+        <v>13308.161870108936</v>
       </c>
       <c r="O81" s="1" t="s">
         <v>116</v>
@@ -7297,7 +7336,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" s="1">
         <v>42.720399999999998</v>
@@ -7318,7 +7357,7 @@
         <v>2.65</v>
       </c>
       <c r="H82" s="1">
-        <v>0.98488357299999996</v>
+        <v>0.98749635199999997</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -7333,10 +7372,10 @@
         <v>138</v>
       </c>
       <c r="M82" s="3">
-        <v>661281.03956438613</v>
+        <v>689383.55263020762</v>
       </c>
       <c r="N82" s="3">
-        <v>19731.054495655633</v>
+        <v>20321.459911371734</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>116</v>
@@ -7344,7 +7383,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" s="1">
         <v>42.720399999999998</v>
@@ -7365,7 +7404,7 @@
         <v>2.65</v>
       </c>
       <c r="H83" s="1">
-        <v>0.98758190800000001</v>
+        <v>0.98488357299999996</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
@@ -7380,10 +7419,10 @@
         <v>138</v>
       </c>
       <c r="M83" s="3">
-        <v>646390.38810047216</v>
+        <v>661281.03956438613</v>
       </c>
       <c r="N83" s="3">
-        <v>16373.090474054285</v>
+        <v>19731.054495655633</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>116</v>
@@ -7391,7 +7430,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="1">
         <v>42.720399999999998</v>
@@ -7427,10 +7466,10 @@
         <v>138</v>
       </c>
       <c r="M84" s="3">
-        <v>617835.69287152379</v>
+        <v>646390.38810047216</v>
       </c>
       <c r="N84" s="3">
-        <v>20858.75808818069</v>
+        <v>16373.090474054285</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>116</v>
@@ -7438,7 +7477,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B85" s="1">
         <v>42.720399999999998</v>
@@ -7459,7 +7498,7 @@
         <v>2.65</v>
       </c>
       <c r="H85" s="1">
-        <v>0.98432423700000005</v>
+        <v>0.98758190800000001</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
@@ -7474,10 +7513,10 @@
         <v>138</v>
       </c>
       <c r="M85" s="3">
-        <v>514891.73683766567</v>
+        <v>617835.69287152379</v>
       </c>
       <c r="N85" s="3">
-        <v>17993.610135323834</v>
+        <v>20858.75808818069</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>116</v>
@@ -7485,7 +7524,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B86" s="1">
         <v>42.720399999999998</v>
@@ -7506,7 +7545,7 @@
         <v>2.65</v>
       </c>
       <c r="H86" s="1">
-        <v>0.98696106800000005</v>
+        <v>0.98432423700000005</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
@@ -7521,10 +7560,10 @@
         <v>138</v>
       </c>
       <c r="M86" s="3">
-        <v>597377.47418224055</v>
+        <v>514891.73683766567</v>
       </c>
       <c r="N86" s="3">
-        <v>25644.079951365969</v>
+        <v>17993.610135323834</v>
       </c>
       <c r="O86" s="1" t="s">
         <v>116</v>
@@ -7532,7 +7571,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B87" s="1">
         <v>42.720399999999998</v>
@@ -7553,7 +7592,7 @@
         <v>2.65</v>
       </c>
       <c r="H87" s="1">
-        <v>0.98670430499999995</v>
+        <v>0.98696106800000005</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -7568,10 +7607,10 @@
         <v>138</v>
       </c>
       <c r="M87" s="3">
-        <v>619506.39142018009</v>
+        <v>597377.47418224055</v>
       </c>
       <c r="N87" s="3">
-        <v>29413.861288438271</v>
+        <v>25644.079951365969</v>
       </c>
       <c r="O87" s="1" t="s">
         <v>116</v>
@@ -7579,16 +7618,16 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B88" s="1">
-        <v>42.640300000000003</v>
+        <v>42.720399999999998</v>
       </c>
       <c r="C88" s="1">
-        <v>-109.0164</v>
+        <v>-109.1835</v>
       </c>
       <c r="D88" s="1">
-        <v>3347</v>
+        <v>3253</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>115</v>
@@ -7600,7 +7639,7 @@
         <v>2.65</v>
       </c>
       <c r="H88" s="1">
-        <v>0.94593660700000004</v>
+        <v>0.98670430499999995</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -7615,10 +7654,10 @@
         <v>138</v>
       </c>
       <c r="M88" s="3">
-        <v>537827.59310979489</v>
+        <v>619506.39142018009</v>
       </c>
       <c r="N88" s="3">
-        <v>23120.953756302235</v>
+        <v>29413.861288438271</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>116</v>
@@ -7626,16 +7665,16 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1">
-        <v>42.64</v>
+        <v>42.640300000000003</v>
       </c>
       <c r="C89" s="1">
-        <v>-109.0162</v>
+        <v>-109.0164</v>
       </c>
       <c r="D89" s="1">
-        <v>3355</v>
+        <v>3347</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>115</v>
@@ -7662,10 +7701,10 @@
         <v>138</v>
       </c>
       <c r="M89" s="3">
-        <v>631480.63449328358</v>
+        <v>537827.59310979489</v>
       </c>
       <c r="N89" s="3">
-        <v>31771.052755347446</v>
+        <v>23120.953756302235</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>116</v>
@@ -7673,7 +7712,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B90" s="1">
         <v>42.64</v>
@@ -7709,10 +7748,10 @@
         <v>138</v>
       </c>
       <c r="M90" s="3">
-        <v>663633.27373616851</v>
+        <v>631480.63449328358</v>
       </c>
       <c r="N90" s="3">
-        <v>15547.450959464817</v>
+        <v>31771.052755347446</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>116</v>
@@ -7720,7 +7759,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B91" s="1">
         <v>42.64</v>
@@ -7741,7 +7780,7 @@
         <v>2.65</v>
       </c>
       <c r="H91" s="1">
-        <v>0.943117439</v>
+        <v>0.94593660700000004</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
@@ -7756,10 +7795,10 @@
         <v>138</v>
       </c>
       <c r="M91" s="3">
-        <v>614055.45175920438</v>
+        <v>663633.27373616851</v>
       </c>
       <c r="N91" s="3">
-        <v>29103.168811710952</v>
+        <v>15547.450959464817</v>
       </c>
       <c r="O91" s="1" t="s">
         <v>116</v>
@@ -7767,7 +7806,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1">
         <v>42.64</v>
@@ -7788,7 +7827,7 @@
         <v>2.65</v>
       </c>
       <c r="H92" s="1">
-        <v>0.94593660700000004</v>
+        <v>0.943117439</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
@@ -7803,10 +7842,10 @@
         <v>138</v>
       </c>
       <c r="M92" s="3">
-        <v>649392.20712077315</v>
+        <v>614055.45175920438</v>
       </c>
       <c r="N92" s="3">
-        <v>28226.621246257695</v>
+        <v>29103.168811710952</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>116</v>
@@ -7814,7 +7853,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" s="1">
         <v>42.64</v>
@@ -7835,7 +7874,7 @@
         <v>2.65</v>
       </c>
       <c r="H93" s="1">
-        <v>0.94593652800000005</v>
+        <v>0.94593660700000004</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
@@ -7850,10 +7889,10 @@
         <v>138</v>
       </c>
       <c r="M93" s="3">
-        <v>590039.40350091294</v>
+        <v>649392.20712077315</v>
       </c>
       <c r="N93" s="3">
-        <v>14555.500110998897</v>
+        <v>28226.621246257695</v>
       </c>
       <c r="O93" s="1" t="s">
         <v>116</v>
@@ -7861,16 +7900,16 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" s="1">
-        <v>42.639299999999999</v>
+        <v>42.64</v>
       </c>
       <c r="C94" s="1">
-        <v>-109.01600000000001</v>
+        <v>-109.0162</v>
       </c>
       <c r="D94" s="1">
-        <v>3363</v>
+        <v>3355</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>115</v>
@@ -7882,7 +7921,7 @@
         <v>2.65</v>
       </c>
       <c r="H94" s="1">
-        <v>0.94593660700000004</v>
+        <v>0.94593652800000005</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
@@ -7897,10 +7936,10 @@
         <v>138</v>
       </c>
       <c r="M94" s="3">
-        <v>554897.42772198457</v>
+        <v>590039.40350091294</v>
       </c>
       <c r="N94" s="3">
-        <v>20648.12252580815</v>
+        <v>14555.500110998897</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>116</v>
@@ -7908,16 +7947,16 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="1">
-        <v>40.747999999999998</v>
+        <v>42.639299999999999</v>
       </c>
       <c r="C95" s="1">
-        <v>-110.6823</v>
+        <v>-109.01600000000001</v>
       </c>
       <c r="D95" s="1">
-        <v>3387</v>
+        <v>3363</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>115</v>
@@ -7926,10 +7965,10 @@
         <v>2</v>
       </c>
       <c r="G95" s="1">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H95" s="1">
-        <v>0.98656007300000004</v>
+        <v>0.94593660700000004</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -7944,10 +7983,10 @@
         <v>138</v>
       </c>
       <c r="M95" s="3">
-        <v>562472.41912724148</v>
+        <v>554897.42772198457</v>
       </c>
       <c r="N95" s="3">
-        <v>12261.484785810464</v>
+        <v>20648.12252580815</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>116</v>
@@ -7955,7 +7994,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1">
         <v>40.747999999999998</v>
@@ -7976,7 +8015,7 @@
         <v>2.7</v>
       </c>
       <c r="H96" s="1">
-        <v>0.987325699</v>
+        <v>0.98656007300000004</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
@@ -7991,10 +8030,10 @@
         <v>138</v>
       </c>
       <c r="M96" s="3">
-        <v>512135.80560745829</v>
+        <v>562472.41912724148</v>
       </c>
       <c r="N96" s="3">
-        <v>28161.982272753958</v>
+        <v>12261.484785810464</v>
       </c>
       <c r="O96" s="1" t="s">
         <v>116</v>
@@ -8002,7 +8041,7 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97" s="1">
         <v>40.747999999999998</v>
@@ -8023,7 +8062,7 @@
         <v>2.7</v>
       </c>
       <c r="H97" s="1">
-        <v>0.98208697499999997</v>
+        <v>0.987325699</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -8038,10 +8077,10 @@
         <v>138</v>
       </c>
       <c r="M97" s="3">
-        <v>561075.51725473499</v>
+        <v>512135.80560745829</v>
       </c>
       <c r="N97" s="3">
-        <v>9628.9526025393916</v>
+        <v>28161.982272753958</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>116</v>
@@ -8049,16 +8088,16 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1">
-        <v>40.747700000000002</v>
+        <v>40.747999999999998</v>
       </c>
       <c r="C98" s="1">
-        <v>-110.6812</v>
+        <v>-110.6823</v>
       </c>
       <c r="D98" s="1">
-        <v>3377</v>
+        <v>3387</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>115</v>
@@ -8070,7 +8109,7 @@
         <v>2.7</v>
       </c>
       <c r="H98" s="1">
-        <v>0.97043383500000002</v>
+        <v>0.98208697499999997</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
@@ -8085,10 +8124,10 @@
         <v>138</v>
       </c>
       <c r="M98" s="3">
-        <v>596520.28804206289</v>
+        <v>561075.51725473499</v>
       </c>
       <c r="N98" s="3">
-        <v>9138.3884037379776</v>
+        <v>9628.9526025393916</v>
       </c>
       <c r="O98" s="1" t="s">
         <v>116</v>
@@ -8096,16 +8135,16 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99" s="1">
-        <v>42.638399999999997</v>
+        <v>40.747700000000002</v>
       </c>
       <c r="C99" s="1">
-        <v>-109.0171</v>
+        <v>-110.6812</v>
       </c>
       <c r="D99" s="1">
-        <v>3370</v>
+        <v>3377</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>115</v>
@@ -8114,10 +8153,10 @@
         <v>2</v>
       </c>
       <c r="G99" s="1">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H99" s="1">
-        <v>0.93692231400000003</v>
+        <v>0.97043383500000002</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -8132,10 +8171,10 @@
         <v>138</v>
       </c>
       <c r="M99" s="3">
-        <v>517879.70113526226</v>
+        <v>596520.28804206289</v>
       </c>
       <c r="N99" s="3">
-        <v>10443.137216130468</v>
+        <v>9138.3884037379776</v>
       </c>
       <c r="O99" s="1" t="s">
         <v>116</v>
@@ -8143,7 +8182,7 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B100" s="1">
         <v>42.638399999999997</v>
@@ -8179,10 +8218,10 @@
         <v>138</v>
       </c>
       <c r="M100" s="3">
-        <v>454571.84728130617</v>
+        <v>517879.70113526226</v>
       </c>
       <c r="N100" s="3">
-        <v>11231.609473718501</v>
+        <v>10443.137216130468</v>
       </c>
       <c r="O100" s="1" t="s">
         <v>116</v>
@@ -8190,7 +8229,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B101" s="1">
         <v>42.638399999999997</v>
@@ -8211,7 +8250,7 @@
         <v>2.65</v>
       </c>
       <c r="H101" s="1">
-        <v>0.93487659300000003</v>
+        <v>0.93692231400000003</v>
       </c>
       <c r="I101" s="1">
         <v>0</v>
@@ -8226,10 +8265,10 @@
         <v>138</v>
       </c>
       <c r="M101" s="3">
-        <v>405385.13099690643</v>
+        <v>454571.84728130617</v>
       </c>
       <c r="N101" s="3">
-        <v>11408.741713878124</v>
+        <v>11231.609473718501</v>
       </c>
       <c r="O101" s="1" t="s">
         <v>116</v>
@@ -8237,7 +8276,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" s="1">
         <v>42.638399999999997</v>
@@ -8258,7 +8297,7 @@
         <v>2.65</v>
       </c>
       <c r="H102" s="1">
-        <v>0.93692231400000003</v>
+        <v>0.93487659300000003</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -8273,10 +8312,10 @@
         <v>138</v>
       </c>
       <c r="M102" s="3">
-        <v>513273.06357547519</v>
+        <v>405385.13099690643</v>
       </c>
       <c r="N102" s="3">
-        <v>17933.379296590923</v>
+        <v>11408.741713878124</v>
       </c>
       <c r="O102" s="1" t="s">
         <v>116</v>
@@ -8284,7 +8323,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="1">
         <v>42.638399999999997</v>
@@ -8320,10 +8359,10 @@
         <v>138</v>
       </c>
       <c r="M103" s="3">
-        <v>516736.22220323054</v>
+        <v>513273.06357547519</v>
       </c>
       <c r="N103" s="3">
-        <v>9851.8625349632111</v>
+        <v>17933.379296590923</v>
       </c>
       <c r="O103" s="1" t="s">
         <v>116</v>
@@ -8331,7 +8370,7 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" s="1">
         <v>42.638399999999997</v>
@@ -8352,7 +8391,7 @@
         <v>2.65</v>
       </c>
       <c r="H104" s="1">
-        <v>0.93631574399999995</v>
+        <v>0.93692231400000003</v>
       </c>
       <c r="I104" s="1">
         <v>0</v>
@@ -8367,10 +8406,10 @@
         <v>138</v>
       </c>
       <c r="M104" s="3">
-        <v>419561.58282604895</v>
+        <v>516736.22220323054</v>
       </c>
       <c r="N104" s="3">
-        <v>10685.44545605478</v>
+        <v>9851.8625349632111</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>116</v>
@@ -8378,7 +8417,7 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1">
         <v>42.638399999999997</v>
@@ -8399,7 +8438,7 @@
         <v>2.65</v>
       </c>
       <c r="H105" s="1">
-        <v>0.93688359600000004</v>
+        <v>0.93631574399999995</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
@@ -8414,10 +8453,10 @@
         <v>138</v>
       </c>
       <c r="M105" s="3">
-        <v>434452.9583589246</v>
+        <v>419561.58282604895</v>
       </c>
       <c r="N105" s="3">
-        <v>15292.754577260121</v>
+        <v>10685.44545605478</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>116</v>
@@ -8425,16 +8464,16 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="1">
-        <v>40.746899999999997</v>
+        <v>42.638399999999997</v>
       </c>
       <c r="C106" s="1">
-        <v>-110.6862</v>
+        <v>-109.0171</v>
       </c>
       <c r="D106" s="1">
-        <v>3402</v>
+        <v>3370</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>115</v>
@@ -8443,10 +8482,10 @@
         <v>2</v>
       </c>
       <c r="G106" s="1">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H106" s="1">
-        <v>0.97886686700000003</v>
+        <v>0.93688359600000004</v>
       </c>
       <c r="I106" s="1">
         <v>0</v>
@@ -8461,10 +8500,10 @@
         <v>138</v>
       </c>
       <c r="M106" s="3">
-        <v>515998.44100344594</v>
+        <v>434452.9583589246</v>
       </c>
       <c r="N106" s="3">
-        <v>20589.711967532123</v>
+        <v>15292.754577260121</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>116</v>
@@ -8472,7 +8511,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1">
         <v>40.746899999999997</v>
@@ -8508,10 +8547,10 @@
         <v>138</v>
       </c>
       <c r="M107" s="3">
-        <v>493654.3498428145</v>
+        <v>515998.44100344594</v>
       </c>
       <c r="N107" s="3">
-        <v>16815.1741657192</v>
+        <v>20589.711967532123</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>116</v>
@@ -8519,7 +8558,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="1">
         <v>40.746899999999997</v>
@@ -8540,7 +8579,7 @@
         <v>2.7</v>
       </c>
       <c r="H108" s="1">
-        <v>0.97793612299999999</v>
+        <v>0.97886686700000003</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
@@ -8555,10 +8594,10 @@
         <v>138</v>
       </c>
       <c r="M108" s="3">
-        <v>473718.73678001628</v>
+        <v>493654.3498428145</v>
       </c>
       <c r="N108" s="3">
-        <v>18051.872352666069</v>
+        <v>16815.1741657192</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>116</v>
@@ -8566,7 +8605,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" s="1">
         <v>40.746899999999997</v>
@@ -8587,7 +8626,7 @@
         <v>2.7</v>
       </c>
       <c r="H109" s="1">
-        <v>0.97040687000000003</v>
+        <v>0.97793612299999999</v>
       </c>
       <c r="I109" s="1">
         <v>0</v>
@@ -8602,10 +8641,10 @@
         <v>138</v>
       </c>
       <c r="M109" s="3">
-        <v>501501.22361658234</v>
+        <v>473718.73678001628</v>
       </c>
       <c r="N109" s="3">
-        <v>9804.002361825902</v>
+        <v>18051.872352666069</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>116</v>
@@ -8613,16 +8652,16 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" s="1">
-        <v>40.747100000000003</v>
+        <v>40.746899999999997</v>
       </c>
       <c r="C110" s="1">
-        <v>-110.6872</v>
+        <v>-110.6862</v>
       </c>
       <c r="D110" s="1">
-        <v>3424</v>
+        <v>3402</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>115</v>
@@ -8634,7 +8673,7 @@
         <v>2.7</v>
       </c>
       <c r="H110" s="1">
-        <v>0.97846115</v>
+        <v>0.97040687000000003</v>
       </c>
       <c r="I110" s="1">
         <v>0</v>
@@ -8649,10 +8688,10 @@
         <v>138</v>
       </c>
       <c r="M110" s="3">
-        <v>532637.60056488123</v>
+        <v>501501.22361658234</v>
       </c>
       <c r="N110" s="3">
-        <v>9437.1963977253617</v>
+        <v>9804.002361825902</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>116</v>
@@ -8660,7 +8699,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B111" s="1">
         <v>40.747100000000003</v>
@@ -8681,7 +8720,7 @@
         <v>2.7</v>
       </c>
       <c r="H111" s="1">
-        <v>0.97737078300000002</v>
+        <v>0.97846115</v>
       </c>
       <c r="I111" s="1">
         <v>0</v>
@@ -8696,10 +8735,10 @@
         <v>138</v>
       </c>
       <c r="M111" s="3">
-        <v>496497.56143406348</v>
+        <v>532637.60056488123</v>
       </c>
       <c r="N111" s="3">
-        <v>11107.872133791408</v>
+        <v>9437.1963977253617</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>116</v>
@@ -8707,16 +8746,16 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B112" s="1">
-        <v>40.741199999999999</v>
+        <v>40.747100000000003</v>
       </c>
       <c r="C112" s="1">
-        <v>-110.6815</v>
+        <v>-110.6872</v>
       </c>
       <c r="D112" s="1">
-        <v>3389</v>
+        <v>3424</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>115</v>
@@ -8728,7 +8767,7 @@
         <v>2.7</v>
       </c>
       <c r="H112" s="1">
-        <v>0.98636515899999999</v>
+        <v>0.97737078300000002</v>
       </c>
       <c r="I112" s="1">
         <v>0</v>
@@ -8743,10 +8782,10 @@
         <v>138</v>
       </c>
       <c r="M112" s="3">
-        <v>638278.90704818734</v>
+        <v>496497.56143406348</v>
       </c>
       <c r="N112" s="3">
-        <v>16201.048943503063</v>
+        <v>11107.872133791408</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>116</v>
@@ -8754,7 +8793,7 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" s="1">
         <v>40.741199999999999</v>
@@ -8775,7 +8814,7 @@
         <v>2.7</v>
       </c>
       <c r="H113" s="1">
-        <v>0.987325699</v>
+        <v>0.98636515899999999</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
@@ -8790,10 +8829,10 @@
         <v>138</v>
       </c>
       <c r="M113" s="3">
-        <v>593935.41029332916</v>
+        <v>638278.90704818734</v>
       </c>
       <c r="N113" s="3">
-        <v>20033.847165400726</v>
+        <v>16201.048943503063</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>116</v>
@@ -8801,7 +8840,7 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B114" s="1">
         <v>40.741199999999999</v>
@@ -8822,7 +8861,7 @@
         <v>2.7</v>
       </c>
       <c r="H114" s="1">
-        <v>0.98691217499999995</v>
+        <v>0.987325699</v>
       </c>
       <c r="I114" s="1">
         <v>0</v>
@@ -8837,10 +8876,10 @@
         <v>138</v>
       </c>
       <c r="M114" s="3">
-        <v>658853.24315751076</v>
+        <v>593935.41029332916</v>
       </c>
       <c r="N114" s="3">
-        <v>21418.955421083243</v>
+        <v>20033.847165400726</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>116</v>
@@ -8848,7 +8887,7 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B115" s="1">
         <v>40.741199999999999</v>
@@ -8869,7 +8908,7 @@
         <v>2.7</v>
       </c>
       <c r="H115" s="1">
-        <v>0.98312609200000001</v>
+        <v>0.98691217499999995</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -8884,10 +8923,10 @@
         <v>138</v>
       </c>
       <c r="M115" s="3">
-        <v>624785.89355003857</v>
+        <v>658853.24315751076</v>
       </c>
       <c r="N115" s="3">
-        <v>24734.253115117775</v>
+        <v>21418.955421083243</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>116</v>
@@ -8895,16 +8934,16 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B116" s="1">
-        <v>40.747100000000003</v>
+        <v>40.741199999999999</v>
       </c>
       <c r="C116" s="1">
-        <v>-110.6819</v>
+        <v>-110.6815</v>
       </c>
       <c r="D116" s="1">
-        <v>3382</v>
+        <v>3389</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>115</v>
@@ -8916,7 +8955,7 @@
         <v>2.7</v>
       </c>
       <c r="H116" s="1">
-        <v>0.98691912000000004</v>
+        <v>0.98312609200000001</v>
       </c>
       <c r="I116" s="1">
         <v>0</v>
@@ -8931,10 +8970,10 @@
         <v>138</v>
       </c>
       <c r="M116" s="3">
-        <v>639694.12659867259</v>
+        <v>624785.89355003857</v>
       </c>
       <c r="N116" s="3">
-        <v>10091.309986197673</v>
+        <v>24734.253115117775</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>116</v>
@@ -8942,7 +8981,7 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B117" s="1">
         <v>40.747100000000003</v>
@@ -8963,7 +9002,7 @@
         <v>2.7</v>
       </c>
       <c r="H117" s="1">
-        <v>0.98665905499999995</v>
+        <v>0.98691912000000004</v>
       </c>
       <c r="I117" s="1">
         <v>0</v>
@@ -8978,10 +9017,10 @@
         <v>138</v>
       </c>
       <c r="M117" s="3">
-        <v>646107.18779336661</v>
+        <v>639694.12659867259</v>
       </c>
       <c r="N117" s="3">
-        <v>11407.759088269571</v>
+        <v>10091.309986197673</v>
       </c>
       <c r="O117" s="1" t="s">
         <v>116</v>
@@ -8989,7 +9028,7 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B118" s="1">
         <v>40.747100000000003</v>
@@ -9010,7 +9049,7 @@
         <v>2.7</v>
       </c>
       <c r="H118" s="1">
-        <v>0.98566941399999997</v>
+        <v>0.98665905499999995</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
@@ -9025,10 +9064,10 @@
         <v>138</v>
       </c>
       <c r="M118" s="3">
-        <v>628763.30074986268</v>
+        <v>646107.18779336661</v>
       </c>
       <c r="N118" s="3">
-        <v>9937.0629717063166</v>
+        <v>11407.759088269571</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>116</v>
@@ -9036,16 +9075,16 @@
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B119" s="1">
-        <v>39.613199999999999</v>
+        <v>40.747100000000003</v>
       </c>
       <c r="C119" s="1">
-        <v>-105.63890000000001</v>
+        <v>-110.6819</v>
       </c>
       <c r="D119" s="1">
-        <v>3613</v>
+        <v>3382</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>115</v>
@@ -9054,10 +9093,10 @@
         <v>2</v>
       </c>
       <c r="G119" s="1">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H119" s="1">
-        <v>0.96885616799999996</v>
+        <v>0.98566941399999997</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -9072,10 +9111,10 @@
         <v>138</v>
       </c>
       <c r="M119" s="3">
-        <v>740345.61156259349</v>
+        <v>628763.30074986268</v>
       </c>
       <c r="N119" s="3">
-        <v>17320.073138105476</v>
+        <v>9937.0629717063166</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>116</v>
@@ -9083,16 +9122,16 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B120" s="1">
-        <v>39.6098</v>
+        <v>39.613199999999999</v>
       </c>
       <c r="C120" s="1">
-        <v>-105.6396</v>
+        <v>-105.63890000000001</v>
       </c>
       <c r="D120" s="1">
-        <v>3625</v>
+        <v>3613</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>115</v>
@@ -9104,7 +9143,7 @@
         <v>2.65</v>
       </c>
       <c r="H120" s="1">
-        <v>0.96713837199999997</v>
+        <v>0.96885616799999996</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
@@ -9119,10 +9158,10 @@
         <v>138</v>
       </c>
       <c r="M120" s="3">
-        <v>736828.69580212026</v>
+        <v>740345.61156259349</v>
       </c>
       <c r="N120" s="3">
-        <v>24413.195660749661</v>
+        <v>17320.073138105476</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>116</v>
@@ -9130,16 +9169,16 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="1">
-        <v>39.609200000000001</v>
+        <v>39.6098</v>
       </c>
       <c r="C121" s="1">
-        <v>-105.64019999999999</v>
+        <v>-105.6396</v>
       </c>
       <c r="D121" s="1">
-        <v>3616</v>
+        <v>3625</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>115</v>
@@ -9151,7 +9190,7 @@
         <v>2.65</v>
       </c>
       <c r="H121" s="1">
-        <v>0.96724739299999996</v>
+        <v>0.96713837199999997</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -9166,10 +9205,10 @@
         <v>138</v>
       </c>
       <c r="M121" s="3">
-        <v>800621.43995604059</v>
+        <v>736828.69580212026</v>
       </c>
       <c r="N121" s="3">
-        <v>23903.744271165699</v>
+        <v>24413.195660749661</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>116</v>
@@ -9177,16 +9216,16 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B122" s="1">
-        <v>39.610300000000002</v>
+        <v>39.609200000000001</v>
       </c>
       <c r="C122" s="1">
-        <v>-105.63890000000001</v>
+        <v>-105.64019999999999</v>
       </c>
       <c r="D122" s="1">
-        <v>3613</v>
+        <v>3616</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>115</v>
@@ -9198,7 +9237,7 @@
         <v>2.65</v>
       </c>
       <c r="H122" s="1">
-        <v>0.96681128900000002</v>
+        <v>0.96724739299999996</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -9213,10 +9252,10 @@
         <v>138</v>
       </c>
       <c r="M122" s="3">
-        <v>814113.80608673394</v>
+        <v>800621.43995604059</v>
       </c>
       <c r="N122" s="3">
-        <v>25542.225774714683</v>
+        <v>23903.744271165699</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>116</v>
@@ -9224,7 +9263,7 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1">
         <v>39.610300000000002</v>
@@ -9245,7 +9284,7 @@
         <v>2.65</v>
       </c>
       <c r="H123" s="1">
-        <v>0.96724739299999996</v>
+        <v>0.96681128900000002</v>
       </c>
       <c r="I123" s="1">
         <v>0</v>
@@ -9260,10 +9299,10 @@
         <v>138</v>
       </c>
       <c r="M123" s="3">
-        <v>812357.45744264952</v>
+        <v>814113.80608673394</v>
       </c>
       <c r="N123" s="3">
-        <v>20570.877160779371</v>
+        <v>25542.225774714683</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>116</v>
@@ -9271,16 +9310,16 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B124" s="1">
-        <v>41.340600000000002</v>
+        <v>39.610300000000002</v>
       </c>
       <c r="C124" s="1">
-        <v>-106.32575</v>
+        <v>-105.63890000000001</v>
       </c>
       <c r="D124" s="1">
-        <v>3267</v>
+        <v>3613</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>115</v>
@@ -9289,10 +9328,10 @@
         <v>2</v>
       </c>
       <c r="G124" s="1">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H124" s="1">
-        <v>0.96714375600000002</v>
+        <v>0.96724739299999996</v>
       </c>
       <c r="I124" s="1">
         <v>0</v>
@@ -9307,10 +9346,10 @@
         <v>138</v>
       </c>
       <c r="M124" s="3">
-        <v>513933.08010516665</v>
+        <v>812357.45744264952</v>
       </c>
       <c r="N124" s="3">
-        <v>13029.878065342351</v>
+        <v>20570.877160779371</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>116</v>
@@ -9318,16 +9357,16 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B125" s="1">
-        <v>41.341200000000001</v>
+        <v>41.340600000000002</v>
       </c>
       <c r="C125" s="1">
-        <v>-106.32187999999999</v>
+        <v>-106.32575</v>
       </c>
       <c r="D125" s="1">
-        <v>3260</v>
+        <v>3267</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>115</v>
@@ -9339,7 +9378,7 @@
         <v>2.7</v>
       </c>
       <c r="H125" s="1">
-        <v>0.98849067300000004</v>
+        <v>0.96714375600000002</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -9354,10 +9393,10 @@
         <v>138</v>
       </c>
       <c r="M125" s="3">
-        <v>622505.38039184862</v>
+        <v>513933.08010516665</v>
       </c>
       <c r="N125" s="3">
-        <v>14206.633361222046</v>
+        <v>13029.878065342351</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>116</v>
@@ -9365,16 +9404,16 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B126" s="1">
-        <v>41.340600000000002</v>
+        <v>41.341200000000001</v>
       </c>
       <c r="C126" s="1">
-        <v>-106.32575</v>
+        <v>-106.32187999999999</v>
       </c>
       <c r="D126" s="1">
-        <v>3267</v>
+        <v>3260</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>115</v>
@@ -9386,7 +9425,7 @@
         <v>2.7</v>
       </c>
       <c r="H126" s="1">
-        <v>0.96714375600000002</v>
+        <v>0.98849067300000004</v>
       </c>
       <c r="I126" s="1">
         <v>0</v>
@@ -9401,10 +9440,10 @@
         <v>138</v>
       </c>
       <c r="M126" s="3">
-        <v>452852.88946810021</v>
+        <v>622505.38039184862</v>
       </c>
       <c r="N126" s="3">
-        <v>12526.794142050918</v>
+        <v>14206.633361222046</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>116</v>
@@ -9412,16 +9451,16 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B127" s="1">
-        <v>41.341200000000001</v>
+        <v>41.340600000000002</v>
       </c>
       <c r="C127" s="1">
-        <v>-106.32187999999999</v>
+        <v>-106.32575</v>
       </c>
       <c r="D127" s="1">
-        <v>3260</v>
+        <v>3267</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>115</v>
@@ -9433,7 +9472,7 @@
         <v>2.7</v>
       </c>
       <c r="H127" s="1">
-        <v>0.98849067300000004</v>
+        <v>0.96714375600000002</v>
       </c>
       <c r="I127" s="1">
         <v>0</v>
@@ -9448,10 +9487,10 @@
         <v>138</v>
       </c>
       <c r="M127" s="3">
-        <v>643603.08465366194</v>
+        <v>452852.88946810021</v>
       </c>
       <c r="N127" s="3">
-        <v>17369.373962106856</v>
+        <v>12526.794142050918</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>116</v>
@@ -9459,16 +9498,16 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B128" s="1">
-        <v>40.021149999999999</v>
+        <v>41.341200000000001</v>
       </c>
       <c r="C128" s="1">
-        <v>-105.68363333333301</v>
+        <v>-106.32187999999999</v>
       </c>
       <c r="D128" s="1">
-        <v>3409</v>
+        <v>3260</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>115</v>
@@ -9477,10 +9516,10 @@
         <v>2</v>
       </c>
       <c r="G128" s="1">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H128" s="1">
-        <v>0.98</v>
+        <v>0.98849067300000004</v>
       </c>
       <c r="I128" s="1">
         <v>0</v>
@@ -9495,10 +9534,10 @@
         <v>138</v>
       </c>
       <c r="M128" s="3">
-        <v>619692.7075582525</v>
+        <v>643603.08465366194</v>
       </c>
       <c r="N128" s="3">
-        <v>12361.816322581517</v>
+        <v>17369.373962106856</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>116</v>
@@ -9506,16 +9545,16 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1">
-        <v>40.021383333333333</v>
+        <v>40.021149999999999</v>
       </c>
       <c r="C129" s="1">
-        <v>-105.68366666666699</v>
+        <v>-105.68363333333301</v>
       </c>
       <c r="D129" s="1">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>115</v>
@@ -9542,10 +9581,10 @@
         <v>138</v>
       </c>
       <c r="M129" s="3">
-        <v>623693.59046987793</v>
+        <v>619692.7075582525</v>
       </c>
       <c r="N129" s="3">
-        <v>13726.188638742125</v>
+        <v>12361.816322581517</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>116</v>
@@ -9553,16 +9592,16 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1">
-        <v>40.021599999999999</v>
+        <v>40.021383333333333</v>
       </c>
       <c r="C130" s="1">
-        <v>-105.68344999999999</v>
+        <v>-105.68366666666699</v>
       </c>
       <c r="D130" s="1">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>115</v>
@@ -9589,10 +9628,10 @@
         <v>138</v>
       </c>
       <c r="M130" s="3">
-        <v>653817.15586360148</v>
+        <v>623693.59046987793</v>
       </c>
       <c r="N130" s="3">
-        <v>16100.014864446099</v>
+        <v>13726.188638742125</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>116</v>
@@ -9600,16 +9639,16 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1">
-        <v>40.021783333333332</v>
+        <v>40.021599999999999</v>
       </c>
       <c r="C131" s="1">
-        <v>-105.68321944444401</v>
+        <v>-105.68344999999999</v>
       </c>
       <c r="D131" s="1">
-        <v>3410</v>
+        <v>3412</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>115</v>
@@ -9636,10 +9675,10 @@
         <v>138</v>
       </c>
       <c r="M131" s="3">
-        <v>620907.47579577274</v>
+        <v>653817.15586360148</v>
       </c>
       <c r="N131" s="3">
-        <v>14686.912609239576</v>
+        <v>16100.014864446099</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>116</v>
@@ -9647,16 +9686,16 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>40.0220916667</v>
+        <v>40.021783333333332</v>
       </c>
       <c r="C132" s="1">
-        <v>-105.68294166666701</v>
+        <v>-105.68321944444401</v>
       </c>
       <c r="D132" s="1">
-        <v>3408</v>
+        <v>3410</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>115</v>
@@ -9683,10 +9722,10 @@
         <v>138</v>
       </c>
       <c r="M132" s="3">
-        <v>625682.61776409904</v>
+        <v>620907.47579577274</v>
       </c>
       <c r="N132" s="3">
-        <v>14025.812123248123</v>
+        <v>14686.912609239576</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>116</v>
@@ -9694,16 +9733,16 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1">
-        <v>40.022386111099998</v>
+        <v>40.0220916667</v>
       </c>
       <c r="C133" s="1">
-        <v>-105.68243333300001</v>
+        <v>-105.68294166666701</v>
       </c>
       <c r="D133" s="1">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>115</v>
@@ -9730,10 +9769,10 @@
         <v>138</v>
       </c>
       <c r="M133" s="3">
-        <v>1692109.1302214218</v>
+        <v>625682.61776409904</v>
       </c>
       <c r="N133" s="3">
-        <v>44019.779336181593</v>
+        <v>14025.812123248123</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>116</v>
@@ -9741,16 +9780,16 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1">
-        <v>40.025700000000001</v>
+        <v>40.022386111099998</v>
       </c>
       <c r="C134" s="1">
-        <v>-105.6297</v>
+        <v>-105.68243333300001</v>
       </c>
       <c r="D134" s="1">
-        <v>3470</v>
+        <v>3411</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>115</v>
@@ -9777,10 +9816,10 @@
         <v>138</v>
       </c>
       <c r="M134" s="3">
-        <v>578963.86002505943</v>
+        <v>1692109.1302214218</v>
       </c>
       <c r="N134" s="3">
-        <v>13613.496669309441</v>
+        <v>44019.779336181593</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>116</v>
@@ -9788,7 +9827,7 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1">
         <v>40.025700000000001</v>
@@ -9824,12 +9863,59 @@
         <v>138</v>
       </c>
       <c r="M135" s="3">
+        <v>578963.86002505943</v>
+      </c>
+      <c r="N135" s="3">
+        <v>13613.496669309441</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>40.025700000000001</v>
+      </c>
+      <c r="C136" s="1">
+        <v>-105.6297</v>
+      </c>
+      <c r="D136" s="1">
+        <v>3470</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F136" s="1">
+        <v>2</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I136" s="1">
+        <v>0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>2008</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M136" s="3">
         <v>673585.86027961876</v>
       </c>
-      <c r="N135" s="3">
+      <c r="N136" s="3">
         <v>32554.39106993992</v>
       </c>
-      <c r="O135" s="1" t="s">
+      <c r="O136" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9842,7 +9928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41BA4EA1-300A-B74B-8008-046C1153A525}">
   <dimension ref="A1:R200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>

--- a/sample_data/41612_2019_62_MOESM2_ESM_simplified.xlsx
+++ b/sample_data/41612_2019_62_MOESM2_ESM_simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeshan/Documents/github/sparrow-uw-cosmo/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92060F94-849F-CE42-B32D-4B4260C78D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE69F3-0FEC-8443-8905-B88BD6E599D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="26780" windowHeight="17460" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="26780" windowHeight="17460" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONUS_input" sheetId="19" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="170">
   <si>
     <t>SBO-SFF-07</t>
   </si>
@@ -607,6 +607,12 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Atm-Pressure</t>
+  </si>
 </sst>
 </file>
 
@@ -1707,7 +1713,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1734,6 +1740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1027">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3492,10 +3499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AE1AF7-AA38-4C4B-A483-9105C007B640}">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3503,7 +3510,7 @@
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -3561,8 +3568,11 @@
       <c r="S1" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11">
         <v>1</v>
@@ -3612,14 +3622,17 @@
       <c r="Q2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R2">
-        <v>1001</v>
-      </c>
-      <c r="S2">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R2" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S2" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -3665,10 +3678,23 @@
       <c r="O3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S3" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -3714,8 +3740,23 @@
       <c r="O4" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S4" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -3761,8 +3802,23 @@
       <c r="O5" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R5" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S5" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -3808,8 +3864,23 @@
       <c r="O6" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S6" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>67</v>
       </c>
@@ -3855,8 +3926,23 @@
       <c r="O7" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S7" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
@@ -3902,8 +3988,23 @@
       <c r="O8" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S8" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -3949,8 +4050,23 @@
       <c r="O9" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S9" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -3996,8 +4112,23 @@
       <c r="O10" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S10" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
@@ -4043,8 +4174,23 @@
       <c r="O11" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R11" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S11" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
@@ -4090,8 +4236,23 @@
       <c r="O12" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R12" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S12" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>73</v>
       </c>
@@ -4137,8 +4298,23 @@
       <c r="O13" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R13" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S13" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -4184,8 +4360,23 @@
       <c r="O14" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R14" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S14" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -4231,8 +4422,23 @@
       <c r="O15" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R15" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S15" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -4278,8 +4484,23 @@
       <c r="O16" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R16" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S16" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4546,23 @@
       <c r="O17" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R17" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S17" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
@@ -4372,8 +4608,23 @@
       <c r="O18" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R18" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S18" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
@@ -4419,8 +4670,23 @@
       <c r="O19" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R19" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S19" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -4466,8 +4732,23 @@
       <c r="O20" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R20" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S20" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>118</v>
       </c>
@@ -4513,8 +4794,23 @@
       <c r="O21" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R21" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S21" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>119</v>
       </c>
@@ -4560,8 +4856,23 @@
       <c r="O22" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R22" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S22" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>120</v>
       </c>
@@ -4607,8 +4918,23 @@
       <c r="O23" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R23" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S23" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>121</v>
       </c>
@@ -4654,8 +4980,23 @@
       <c r="O24" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R24" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S24" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>122</v>
       </c>
@@ -4701,8 +5042,23 @@
       <c r="O25" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R25" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S25" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -4748,8 +5104,23 @@
       <c r="O26" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R26" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S26" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -4795,8 +5166,23 @@
       <c r="O27" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R27" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S27" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -4842,8 +5228,23 @@
       <c r="O28" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R28" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S28" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -4889,8 +5290,23 @@
       <c r="O29" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R29" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S29" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -4936,8 +5352,23 @@
       <c r="O30" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R30" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S30" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4983,8 +5414,23 @@
       <c r="O31" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R31" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S31" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -5030,8 +5476,23 @@
       <c r="O32" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R32" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S32" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -5077,8 +5538,23 @@
       <c r="O33" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R33" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S33" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -5124,8 +5600,23 @@
       <c r="O34" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S34" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -5171,8 +5662,23 @@
       <c r="O35" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R35" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S35" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -5218,8 +5724,23 @@
       <c r="O36" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R36" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S36" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -5265,8 +5786,23 @@
       <c r="O37" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R37" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S37" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -5312,8 +5848,23 @@
       <c r="O38" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R38" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S38" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -5359,8 +5910,23 @@
       <c r="O39" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R39" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S39" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -5406,8 +5972,23 @@
       <c r="O40" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R40" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S40" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
@@ -5453,8 +6034,23 @@
       <c r="O41" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R41" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S41" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -5500,8 +6096,23 @@
       <c r="O42" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R42" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S42" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -5547,8 +6158,23 @@
       <c r="O43" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R43" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S43" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -5594,8 +6220,23 @@
       <c r="O44" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R44" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S44" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -5641,8 +6282,23 @@
       <c r="O45" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R45" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S45" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -5688,8 +6344,23 @@
       <c r="O46" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R46" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S46" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -5735,8 +6406,23 @@
       <c r="O47" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R47" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S47" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
@@ -5782,8 +6468,23 @@
       <c r="O48" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R48" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S48" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
@@ -5829,8 +6530,23 @@
       <c r="O49" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R49" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S49" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
@@ -5876,8 +6592,23 @@
       <c r="O50" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R50" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S50" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -5923,8 +6654,23 @@
       <c r="O51" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R51" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S51" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -5970,8 +6716,23 @@
       <c r="O52" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R52" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S52" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -6017,8 +6778,23 @@
       <c r="O53" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R53" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S53" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -6064,8 +6840,23 @@
       <c r="O54" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R54" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S54" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>25</v>
       </c>
@@ -6111,8 +6902,23 @@
       <c r="O55" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R55" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S55" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>26</v>
       </c>
@@ -6158,8 +6964,23 @@
       <c r="O56" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R56" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S56" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
@@ -6205,8 +7026,23 @@
       <c r="O57" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R57" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S57" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -6252,8 +7088,23 @@
       <c r="O58" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R58" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S58" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
@@ -6299,8 +7150,23 @@
       <c r="O59" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R59" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S59" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>30</v>
       </c>
@@ -6346,8 +7212,23 @@
       <c r="O60" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R60" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S60" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -6393,8 +7274,23 @@
       <c r="O61" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R61" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S61" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>32</v>
       </c>
@@ -6440,8 +7336,23 @@
       <c r="O62" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R62" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S62" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>33</v>
       </c>
@@ -6487,8 +7398,23 @@
       <c r="O63" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R63" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S63" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -6534,8 +7460,23 @@
       <c r="O64" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R64" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S64" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
@@ -6581,8 +7522,23 @@
       <c r="O65" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R65" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S65" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>36</v>
       </c>
@@ -6628,8 +7584,23 @@
       <c r="O66" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R66" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S66" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
@@ -6675,8 +7646,23 @@
       <c r="O67" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R67" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S67" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>38</v>
       </c>
@@ -6722,8 +7708,23 @@
       <c r="O68" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R68" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S68" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -6769,8 +7770,23 @@
       <c r="O69" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R69" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S69" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -6816,8 +7832,23 @@
       <c r="O70" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R70" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S70" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>41</v>
       </c>
@@ -6863,8 +7894,23 @@
       <c r="O71" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R71" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S71" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>42</v>
       </c>
@@ -6910,8 +7956,23 @@
       <c r="O72" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R72" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S72" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
@@ -6957,8 +8018,23 @@
       <c r="O73" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R73" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S73" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>44</v>
       </c>
@@ -7004,8 +8080,23 @@
       <c r="O74" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R74" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S74" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>45</v>
       </c>
@@ -7051,8 +8142,23 @@
       <c r="O75" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R75" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S75" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>46</v>
       </c>
@@ -7098,8 +8204,23 @@
       <c r="O76" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R76" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S76" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>47</v>
       </c>
@@ -7145,8 +8266,23 @@
       <c r="O77" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R77" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S77" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>48</v>
       </c>
@@ -7192,8 +8328,23 @@
       <c r="O78" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R78" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S78" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>49</v>
       </c>
@@ -7239,8 +8390,23 @@
       <c r="O79" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R79" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S79" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>50</v>
       </c>
@@ -7286,8 +8452,23 @@
       <c r="O80" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R80" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S80" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
@@ -7333,8 +8514,23 @@
       <c r="O81" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R81" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S81" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>52</v>
       </c>
@@ -7380,8 +8576,23 @@
       <c r="O82" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R82" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S82" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>53</v>
       </c>
@@ -7427,8 +8638,23 @@
       <c r="O83" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R83" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S83" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>54</v>
       </c>
@@ -7474,8 +8700,23 @@
       <c r="O84" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R84" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S84" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>55</v>
       </c>
@@ -7521,8 +8762,23 @@
       <c r="O85" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R85" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S85" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>56</v>
       </c>
@@ -7568,8 +8824,23 @@
       <c r="O86" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R86" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S86" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>57</v>
       </c>
@@ -7615,8 +8886,23 @@
       <c r="O87" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R87" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S87" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>58</v>
       </c>
@@ -7662,8 +8948,23 @@
       <c r="O88" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R88" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S88" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>59</v>
       </c>
@@ -7709,8 +9010,23 @@
       <c r="O89" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R89" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S89" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>60</v>
       </c>
@@ -7756,8 +9072,23 @@
       <c r="O90" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R90" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S90" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>61</v>
       </c>
@@ -7803,8 +9134,23 @@
       <c r="O91" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R91" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S91" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>123</v>
       </c>
@@ -7850,8 +9196,23 @@
       <c r="O92" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R92" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S92" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>124</v>
       </c>
@@ -7897,8 +9258,23 @@
       <c r="O93" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R93" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S93" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>125</v>
       </c>
@@ -7944,8 +9320,23 @@
       <c r="O94" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R94" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S94" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>126</v>
       </c>
@@ -7991,8 +9382,23 @@
       <c r="O95" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R95" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S95" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>127</v>
       </c>
@@ -8038,8 +9444,23 @@
       <c r="O96" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R96" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S96" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>80</v>
       </c>
@@ -8085,8 +9506,23 @@
       <c r="O97" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R97" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S97" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>81</v>
       </c>
@@ -8132,8 +9568,23 @@
       <c r="O98" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R98" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S98" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
@@ -8179,8 +9630,23 @@
       <c r="O99" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R99" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S99" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>83</v>
       </c>
@@ -8226,8 +9692,23 @@
       <c r="O100" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R100" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S100" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>84</v>
       </c>
@@ -8273,8 +9754,23 @@
       <c r="O101" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R101" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S101" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>85</v>
       </c>
@@ -8320,8 +9816,23 @@
       <c r="O102" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R102" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S102" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>86</v>
       </c>
@@ -8367,8 +9878,23 @@
       <c r="O103" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R103" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S103" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>87</v>
       </c>
@@ -8414,8 +9940,23 @@
       <c r="O104" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R104" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S104" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>88</v>
       </c>
@@ -8461,8 +10002,23 @@
       <c r="O105" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R105" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S105" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>89</v>
       </c>
@@ -8508,8 +10064,23 @@
       <c r="O106" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P106" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R106" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S106" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>90</v>
       </c>
@@ -8555,8 +10126,23 @@
       <c r="O107" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P107" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R107" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S107" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>91</v>
       </c>
@@ -8602,8 +10188,23 @@
       <c r="O108" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R108" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S108" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>92</v>
       </c>
@@ -8649,8 +10250,23 @@
       <c r="O109" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R109" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S109" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>93</v>
       </c>
@@ -8696,8 +10312,23 @@
       <c r="O110" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R110" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S110" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>94</v>
       </c>
@@ -8743,8 +10374,23 @@
       <c r="O111" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R111" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S111" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>95</v>
       </c>
@@ -8790,8 +10436,23 @@
       <c r="O112" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R112" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S112" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>96</v>
       </c>
@@ -8837,8 +10498,23 @@
       <c r="O113" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R113" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S113" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>97</v>
       </c>
@@ -8884,8 +10560,23 @@
       <c r="O114" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R114" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S114" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>98</v>
       </c>
@@ -8931,8 +10622,23 @@
       <c r="O115" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P115" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R115" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S115" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>99</v>
       </c>
@@ -8978,8 +10684,23 @@
       <c r="O116" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R116" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S116" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>100</v>
       </c>
@@ -9025,8 +10746,23 @@
       <c r="O117" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R117" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S117" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>101</v>
       </c>
@@ -9072,8 +10808,23 @@
       <c r="O118" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R118" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S118" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>102</v>
       </c>
@@ -9119,8 +10870,23 @@
       <c r="O119" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R119" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S119" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>103</v>
       </c>
@@ -9166,8 +10932,23 @@
       <c r="O120" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P120" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R120" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S120" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>104</v>
       </c>
@@ -9213,8 +10994,23 @@
       <c r="O121" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R121" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S121" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>105</v>
       </c>
@@ -9260,8 +11056,23 @@
       <c r="O122" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P122" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R122" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S122" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>106</v>
       </c>
@@ -9307,8 +11118,23 @@
       <c r="O123" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R123" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S123" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>107</v>
       </c>
@@ -9354,8 +11180,23 @@
       <c r="O124" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R124" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S124" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>69</v>
       </c>
@@ -9401,8 +11242,23 @@
       <c r="O125" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R125" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S125" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>67</v>
       </c>
@@ -9448,8 +11304,23 @@
       <c r="O126" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P126" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R126" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S126" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>69</v>
       </c>
@@ -9495,8 +11366,23 @@
       <c r="O127" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q127" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R127" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S127" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>67</v>
       </c>
@@ -9542,8 +11428,23 @@
       <c r="O128" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R128" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S128" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -9589,8 +11490,23 @@
       <c r="O129" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R129" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S129" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -9636,8 +11552,23 @@
       <c r="O130" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R130" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S130" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -9683,8 +11614,23 @@
       <c r="O131" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P131" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q131" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R131" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S131" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -9730,8 +11676,23 @@
       <c r="O132" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P132" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R132" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S132" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -9777,8 +11738,23 @@
       <c r="O133" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P133" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R133" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S133" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -9824,8 +11800,23 @@
       <c r="O134" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P134" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R134" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S134" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -9871,8 +11862,23 @@
       <c r="O135" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="P135" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R135" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S135" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -9917,6 +11923,21 @@
       </c>
       <c r="O136" s="1" t="s">
         <v>116</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="R136" s="12">
+        <v>35347</v>
+      </c>
+      <c r="S136" s="12">
+        <v>35347</v>
+      </c>
+      <c r="T136">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data/41612_2019_62_MOESM2_ESM_simplified.xlsx
+++ b/sample_data/41612_2019_62_MOESM2_ESM_simplified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeshan/Documents/github/sparrow-uw-cosmo/sample_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCE69F3-0FEC-8443-8905-B88BD6E599D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF9628A-A5D9-1744-AD04-AD501C510F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="26780" windowHeight="17460" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="31380" windowHeight="17460" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONUS_input" sheetId="19" r:id="rId1"/>
@@ -1734,13 +1734,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1026" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1026" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1027">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3502,7 +3502,7 @@
   <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3556,61 +3556,61 @@
       <c r="O1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>3</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>0.9</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>0</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>1001</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10">
         <v>666666</v>
       </c>
-      <c r="N2" s="11">
+      <c r="N2" s="10">
         <v>11111</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3622,10 +3622,10 @@
       <c r="Q2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R2" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S2" s="12">
+      <c r="R2" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S2" s="11">
         <v>35347</v>
       </c>
       <c r="T2">
@@ -3684,10 +3684,10 @@
       <c r="Q3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R3" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S3" s="12">
+      <c r="R3" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S3" s="11">
         <v>35347</v>
       </c>
       <c r="T3">
@@ -3746,10 +3746,10 @@
       <c r="Q4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S4" s="12">
+      <c r="R4" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S4" s="11">
         <v>35347</v>
       </c>
       <c r="T4">
@@ -3808,10 +3808,10 @@
       <c r="Q5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R5" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S5" s="12">
+      <c r="R5" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S5" s="11">
         <v>35347</v>
       </c>
       <c r="T5">
@@ -3870,10 +3870,10 @@
       <c r="Q6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R6" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S6" s="12">
+      <c r="R6" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S6" s="11">
         <v>35347</v>
       </c>
       <c r="T6">
@@ -3932,10 +3932,10 @@
       <c r="Q7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S7" s="12">
+      <c r="R7" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S7" s="11">
         <v>35347</v>
       </c>
       <c r="T7">
@@ -3994,10 +3994,10 @@
       <c r="Q8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S8" s="12">
+      <c r="R8" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S8" s="11">
         <v>35347</v>
       </c>
       <c r="T8">
@@ -4056,10 +4056,10 @@
       <c r="Q9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R9" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S9" s="12">
+      <c r="R9" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S9" s="11">
         <v>35347</v>
       </c>
       <c r="T9">
@@ -4118,10 +4118,10 @@
       <c r="Q10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R10" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S10" s="12">
+      <c r="R10" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S10" s="11">
         <v>35347</v>
       </c>
       <c r="T10">
@@ -4180,10 +4180,10 @@
       <c r="Q11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S11" s="12">
+      <c r="R11" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S11" s="11">
         <v>35347</v>
       </c>
       <c r="T11">
@@ -4242,10 +4242,10 @@
       <c r="Q12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S12" s="12">
+      <c r="R12" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S12" s="11">
         <v>35347</v>
       </c>
       <c r="T12">
@@ -4304,10 +4304,10 @@
       <c r="Q13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R13" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S13" s="12">
+      <c r="R13" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S13" s="11">
         <v>35347</v>
       </c>
       <c r="T13">
@@ -4366,10 +4366,10 @@
       <c r="Q14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R14" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S14" s="12">
+      <c r="R14" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S14" s="11">
         <v>35347</v>
       </c>
       <c r="T14">
@@ -4428,10 +4428,10 @@
       <c r="Q15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R15" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S15" s="12">
+      <c r="R15" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S15" s="11">
         <v>35347</v>
       </c>
       <c r="T15">
@@ -4490,10 +4490,10 @@
       <c r="Q16" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R16" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S16" s="12">
+      <c r="R16" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S16" s="11">
         <v>35347</v>
       </c>
       <c r="T16">
@@ -4552,10 +4552,10 @@
       <c r="Q17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R17" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S17" s="12">
+      <c r="R17" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S17" s="11">
         <v>35347</v>
       </c>
       <c r="T17">
@@ -4614,10 +4614,10 @@
       <c r="Q18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R18" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S18" s="12">
+      <c r="R18" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S18" s="11">
         <v>35347</v>
       </c>
       <c r="T18">
@@ -4676,10 +4676,10 @@
       <c r="Q19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R19" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S19" s="12">
+      <c r="R19" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S19" s="11">
         <v>35347</v>
       </c>
       <c r="T19">
@@ -4738,10 +4738,10 @@
       <c r="Q20" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R20" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S20" s="12">
+      <c r="R20" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S20" s="11">
         <v>35347</v>
       </c>
       <c r="T20">
@@ -4800,10 +4800,10 @@
       <c r="Q21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R21" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S21" s="12">
+      <c r="R21" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S21" s="11">
         <v>35347</v>
       </c>
       <c r="T21">
@@ -4862,10 +4862,10 @@
       <c r="Q22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R22" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S22" s="12">
+      <c r="R22" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S22" s="11">
         <v>35347</v>
       </c>
       <c r="T22">
@@ -4924,10 +4924,10 @@
       <c r="Q23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R23" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S23" s="12">
+      <c r="R23" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S23" s="11">
         <v>35347</v>
       </c>
       <c r="T23">
@@ -4986,10 +4986,10 @@
       <c r="Q24" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R24" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S24" s="12">
+      <c r="R24" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S24" s="11">
         <v>35347</v>
       </c>
       <c r="T24">
@@ -5048,10 +5048,10 @@
       <c r="Q25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R25" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S25" s="12">
+      <c r="R25" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S25" s="11">
         <v>35347</v>
       </c>
       <c r="T25">
@@ -5110,10 +5110,10 @@
       <c r="Q26" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R26" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S26" s="12">
+      <c r="R26" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S26" s="11">
         <v>35347</v>
       </c>
       <c r="T26">
@@ -5172,10 +5172,10 @@
       <c r="Q27" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R27" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S27" s="12">
+      <c r="R27" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S27" s="11">
         <v>35347</v>
       </c>
       <c r="T27">
@@ -5234,10 +5234,10 @@
       <c r="Q28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S28" s="12">
+      <c r="R28" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S28" s="11">
         <v>35347</v>
       </c>
       <c r="T28">
@@ -5296,10 +5296,10 @@
       <c r="Q29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R29" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S29" s="12">
+      <c r="R29" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S29" s="11">
         <v>35347</v>
       </c>
       <c r="T29">
@@ -5358,10 +5358,10 @@
       <c r="Q30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R30" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S30" s="12">
+      <c r="R30" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S30" s="11">
         <v>35347</v>
       </c>
       <c r="T30">
@@ -5420,10 +5420,10 @@
       <c r="Q31" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R31" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S31" s="12">
+      <c r="R31" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S31" s="11">
         <v>35347</v>
       </c>
       <c r="T31">
@@ -5482,10 +5482,10 @@
       <c r="Q32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R32" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S32" s="12">
+      <c r="R32" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S32" s="11">
         <v>35347</v>
       </c>
       <c r="T32">
@@ -5544,10 +5544,10 @@
       <c r="Q33" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R33" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S33" s="12">
+      <c r="R33" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S33" s="11">
         <v>35347</v>
       </c>
       <c r="T33">
@@ -5606,10 +5606,10 @@
       <c r="Q34" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R34" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S34" s="12">
+      <c r="R34" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S34" s="11">
         <v>35347</v>
       </c>
       <c r="T34">
@@ -5668,10 +5668,10 @@
       <c r="Q35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R35" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S35" s="12">
+      <c r="R35" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S35" s="11">
         <v>35347</v>
       </c>
       <c r="T35">
@@ -5730,10 +5730,10 @@
       <c r="Q36" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R36" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S36" s="12">
+      <c r="R36" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S36" s="11">
         <v>35347</v>
       </c>
       <c r="T36">
@@ -5792,10 +5792,10 @@
       <c r="Q37" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R37" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S37" s="12">
+      <c r="R37" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S37" s="11">
         <v>35347</v>
       </c>
       <c r="T37">
@@ -5854,10 +5854,10 @@
       <c r="Q38" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R38" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S38" s="12">
+      <c r="R38" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S38" s="11">
         <v>35347</v>
       </c>
       <c r="T38">
@@ -5916,10 +5916,10 @@
       <c r="Q39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R39" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S39" s="12">
+      <c r="R39" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S39" s="11">
         <v>35347</v>
       </c>
       <c r="T39">
@@ -5978,10 +5978,10 @@
       <c r="Q40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R40" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S40" s="12">
+      <c r="R40" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S40" s="11">
         <v>35347</v>
       </c>
       <c r="T40">
@@ -6040,10 +6040,10 @@
       <c r="Q41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R41" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S41" s="12">
+      <c r="R41" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S41" s="11">
         <v>35347</v>
       </c>
       <c r="T41">
@@ -6102,10 +6102,10 @@
       <c r="Q42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R42" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S42" s="12">
+      <c r="R42" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S42" s="11">
         <v>35347</v>
       </c>
       <c r="T42">
@@ -6164,10 +6164,10 @@
       <c r="Q43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R43" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S43" s="12">
+      <c r="R43" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S43" s="11">
         <v>35347</v>
       </c>
       <c r="T43">
@@ -6226,10 +6226,10 @@
       <c r="Q44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R44" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S44" s="12">
+      <c r="R44" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S44" s="11">
         <v>35347</v>
       </c>
       <c r="T44">
@@ -6288,10 +6288,10 @@
       <c r="Q45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R45" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S45" s="12">
+      <c r="R45" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S45" s="11">
         <v>35347</v>
       </c>
       <c r="T45">
@@ -6350,10 +6350,10 @@
       <c r="Q46" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R46" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S46" s="12">
+      <c r="R46" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S46" s="11">
         <v>35347</v>
       </c>
       <c r="T46">
@@ -6412,10 +6412,10 @@
       <c r="Q47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R47" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S47" s="12">
+      <c r="R47" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S47" s="11">
         <v>35347</v>
       </c>
       <c r="T47">
@@ -6474,10 +6474,10 @@
       <c r="Q48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R48" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S48" s="12">
+      <c r="R48" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S48" s="11">
         <v>35347</v>
       </c>
       <c r="T48">
@@ -6536,10 +6536,10 @@
       <c r="Q49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R49" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S49" s="12">
+      <c r="R49" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S49" s="11">
         <v>35347</v>
       </c>
       <c r="T49">
@@ -6598,10 +6598,10 @@
       <c r="Q50" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R50" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S50" s="12">
+      <c r="R50" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S50" s="11">
         <v>35347</v>
       </c>
       <c r="T50">
@@ -6660,10 +6660,10 @@
       <c r="Q51" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R51" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S51" s="12">
+      <c r="R51" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S51" s="11">
         <v>35347</v>
       </c>
       <c r="T51">
@@ -6722,10 +6722,10 @@
       <c r="Q52" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R52" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S52" s="12">
+      <c r="R52" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S52" s="11">
         <v>35347</v>
       </c>
       <c r="T52">
@@ -6784,10 +6784,10 @@
       <c r="Q53" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R53" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S53" s="12">
+      <c r="R53" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S53" s="11">
         <v>35347</v>
       </c>
       <c r="T53">
@@ -6846,10 +6846,10 @@
       <c r="Q54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R54" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S54" s="12">
+      <c r="R54" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S54" s="11">
         <v>35347</v>
       </c>
       <c r="T54">
@@ -6908,10 +6908,10 @@
       <c r="Q55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R55" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S55" s="12">
+      <c r="R55" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S55" s="11">
         <v>35347</v>
       </c>
       <c r="T55">
@@ -6970,10 +6970,10 @@
       <c r="Q56" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R56" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S56" s="12">
+      <c r="R56" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S56" s="11">
         <v>35347</v>
       </c>
       <c r="T56">
@@ -7032,10 +7032,10 @@
       <c r="Q57" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R57" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S57" s="12">
+      <c r="R57" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S57" s="11">
         <v>35347</v>
       </c>
       <c r="T57">
@@ -7094,10 +7094,10 @@
       <c r="Q58" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R58" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S58" s="12">
+      <c r="R58" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S58" s="11">
         <v>35347</v>
       </c>
       <c r="T58">
@@ -7156,10 +7156,10 @@
       <c r="Q59" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R59" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S59" s="12">
+      <c r="R59" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S59" s="11">
         <v>35347</v>
       </c>
       <c r="T59">
@@ -7218,10 +7218,10 @@
       <c r="Q60" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R60" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S60" s="12">
+      <c r="R60" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S60" s="11">
         <v>35347</v>
       </c>
       <c r="T60">
@@ -7280,10 +7280,10 @@
       <c r="Q61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R61" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S61" s="12">
+      <c r="R61" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S61" s="11">
         <v>35347</v>
       </c>
       <c r="T61">
@@ -7342,10 +7342,10 @@
       <c r="Q62" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R62" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S62" s="12">
+      <c r="R62" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S62" s="11">
         <v>35347</v>
       </c>
       <c r="T62">
@@ -7404,10 +7404,10 @@
       <c r="Q63" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R63" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S63" s="12">
+      <c r="R63" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S63" s="11">
         <v>35347</v>
       </c>
       <c r="T63">
@@ -7466,10 +7466,10 @@
       <c r="Q64" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R64" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S64" s="12">
+      <c r="R64" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S64" s="11">
         <v>35347</v>
       </c>
       <c r="T64">
@@ -7528,10 +7528,10 @@
       <c r="Q65" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R65" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S65" s="12">
+      <c r="R65" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S65" s="11">
         <v>35347</v>
       </c>
       <c r="T65">
@@ -7590,10 +7590,10 @@
       <c r="Q66" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R66" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S66" s="12">
+      <c r="R66" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S66" s="11">
         <v>35347</v>
       </c>
       <c r="T66">
@@ -7652,10 +7652,10 @@
       <c r="Q67" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R67" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S67" s="12">
+      <c r="R67" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S67" s="11">
         <v>35347</v>
       </c>
       <c r="T67">
@@ -7714,10 +7714,10 @@
       <c r="Q68" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R68" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S68" s="12">
+      <c r="R68" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S68" s="11">
         <v>35347</v>
       </c>
       <c r="T68">
@@ -7776,10 +7776,10 @@
       <c r="Q69" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R69" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S69" s="12">
+      <c r="R69" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S69" s="11">
         <v>35347</v>
       </c>
       <c r="T69">
@@ -7838,10 +7838,10 @@
       <c r="Q70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R70" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S70" s="12">
+      <c r="R70" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S70" s="11">
         <v>35347</v>
       </c>
       <c r="T70">
@@ -7900,10 +7900,10 @@
       <c r="Q71" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R71" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S71" s="12">
+      <c r="R71" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S71" s="11">
         <v>35347</v>
       </c>
       <c r="T71">
@@ -7962,10 +7962,10 @@
       <c r="Q72" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R72" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S72" s="12">
+      <c r="R72" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S72" s="11">
         <v>35347</v>
       </c>
       <c r="T72">
@@ -8024,10 +8024,10 @@
       <c r="Q73" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R73" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S73" s="12">
+      <c r="R73" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S73" s="11">
         <v>35347</v>
       </c>
       <c r="T73">
@@ -8086,10 +8086,10 @@
       <c r="Q74" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R74" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S74" s="12">
+      <c r="R74" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S74" s="11">
         <v>35347</v>
       </c>
       <c r="T74">
@@ -8148,10 +8148,10 @@
       <c r="Q75" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R75" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S75" s="12">
+      <c r="R75" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S75" s="11">
         <v>35347</v>
       </c>
       <c r="T75">
@@ -8210,10 +8210,10 @@
       <c r="Q76" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R76" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S76" s="12">
+      <c r="R76" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S76" s="11">
         <v>35347</v>
       </c>
       <c r="T76">
@@ -8272,10 +8272,10 @@
       <c r="Q77" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R77" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S77" s="12">
+      <c r="R77" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S77" s="11">
         <v>35347</v>
       </c>
       <c r="T77">
@@ -8334,10 +8334,10 @@
       <c r="Q78" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R78" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S78" s="12">
+      <c r="R78" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S78" s="11">
         <v>35347</v>
       </c>
       <c r="T78">
@@ -8396,10 +8396,10 @@
       <c r="Q79" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R79" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S79" s="12">
+      <c r="R79" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S79" s="11">
         <v>35347</v>
       </c>
       <c r="T79">
@@ -8458,10 +8458,10 @@
       <c r="Q80" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R80" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S80" s="12">
+      <c r="R80" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S80" s="11">
         <v>35347</v>
       </c>
       <c r="T80">
@@ -8520,10 +8520,10 @@
       <c r="Q81" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R81" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S81" s="12">
+      <c r="R81" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S81" s="11">
         <v>35347</v>
       </c>
       <c r="T81">
@@ -8582,10 +8582,10 @@
       <c r="Q82" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R82" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S82" s="12">
+      <c r="R82" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S82" s="11">
         <v>35347</v>
       </c>
       <c r="T82">
@@ -8644,10 +8644,10 @@
       <c r="Q83" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R83" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S83" s="12">
+      <c r="R83" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S83" s="11">
         <v>35347</v>
       </c>
       <c r="T83">
@@ -8706,10 +8706,10 @@
       <c r="Q84" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R84" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S84" s="12">
+      <c r="R84" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S84" s="11">
         <v>35347</v>
       </c>
       <c r="T84">
@@ -8768,10 +8768,10 @@
       <c r="Q85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R85" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S85" s="12">
+      <c r="R85" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S85" s="11">
         <v>35347</v>
       </c>
       <c r="T85">
@@ -8830,10 +8830,10 @@
       <c r="Q86" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R86" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S86" s="12">
+      <c r="R86" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S86" s="11">
         <v>35347</v>
       </c>
       <c r="T86">
@@ -8892,10 +8892,10 @@
       <c r="Q87" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R87" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S87" s="12">
+      <c r="R87" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S87" s="11">
         <v>35347</v>
       </c>
       <c r="T87">
@@ -8954,10 +8954,10 @@
       <c r="Q88" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R88" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S88" s="12">
+      <c r="R88" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S88" s="11">
         <v>35347</v>
       </c>
       <c r="T88">
@@ -9016,10 +9016,10 @@
       <c r="Q89" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R89" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S89" s="12">
+      <c r="R89" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S89" s="11">
         <v>35347</v>
       </c>
       <c r="T89">
@@ -9078,10 +9078,10 @@
       <c r="Q90" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R90" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S90" s="12">
+      <c r="R90" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S90" s="11">
         <v>35347</v>
       </c>
       <c r="T90">
@@ -9140,10 +9140,10 @@
       <c r="Q91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R91" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S91" s="12">
+      <c r="R91" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S91" s="11">
         <v>35347</v>
       </c>
       <c r="T91">
@@ -9202,10 +9202,10 @@
       <c r="Q92" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R92" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S92" s="12">
+      <c r="R92" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S92" s="11">
         <v>35347</v>
       </c>
       <c r="T92">
@@ -9264,10 +9264,10 @@
       <c r="Q93" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R93" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S93" s="12">
+      <c r="R93" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S93" s="11">
         <v>35347</v>
       </c>
       <c r="T93">
@@ -9326,10 +9326,10 @@
       <c r="Q94" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R94" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S94" s="12">
+      <c r="R94" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S94" s="11">
         <v>35347</v>
       </c>
       <c r="T94">
@@ -9388,10 +9388,10 @@
       <c r="Q95" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R95" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S95" s="12">
+      <c r="R95" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S95" s="11">
         <v>35347</v>
       </c>
       <c r="T95">
@@ -9450,10 +9450,10 @@
       <c r="Q96" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R96" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S96" s="12">
+      <c r="R96" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S96" s="11">
         <v>35347</v>
       </c>
       <c r="T96">
@@ -9512,10 +9512,10 @@
       <c r="Q97" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R97" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S97" s="12">
+      <c r="R97" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S97" s="11">
         <v>35347</v>
       </c>
       <c r="T97">
@@ -9574,10 +9574,10 @@
       <c r="Q98" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R98" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S98" s="12">
+      <c r="R98" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S98" s="11">
         <v>35347</v>
       </c>
       <c r="T98">
@@ -9636,10 +9636,10 @@
       <c r="Q99" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R99" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S99" s="12">
+      <c r="R99" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S99" s="11">
         <v>35347</v>
       </c>
       <c r="T99">
@@ -9698,10 +9698,10 @@
       <c r="Q100" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R100" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S100" s="12">
+      <c r="R100" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S100" s="11">
         <v>35347</v>
       </c>
       <c r="T100">
@@ -9760,10 +9760,10 @@
       <c r="Q101" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R101" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S101" s="12">
+      <c r="R101" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S101" s="11">
         <v>35347</v>
       </c>
       <c r="T101">
@@ -9822,10 +9822,10 @@
       <c r="Q102" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R102" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S102" s="12">
+      <c r="R102" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S102" s="11">
         <v>35347</v>
       </c>
       <c r="T102">
@@ -9884,10 +9884,10 @@
       <c r="Q103" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R103" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S103" s="12">
+      <c r="R103" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S103" s="11">
         <v>35347</v>
       </c>
       <c r="T103">
@@ -9946,10 +9946,10 @@
       <c r="Q104" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R104" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S104" s="12">
+      <c r="R104" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S104" s="11">
         <v>35347</v>
       </c>
       <c r="T104">
@@ -10008,10 +10008,10 @@
       <c r="Q105" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R105" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S105" s="12">
+      <c r="R105" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S105" s="11">
         <v>35347</v>
       </c>
       <c r="T105">
@@ -10070,10 +10070,10 @@
       <c r="Q106" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R106" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S106" s="12">
+      <c r="R106" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S106" s="11">
         <v>35347</v>
       </c>
       <c r="T106">
@@ -10132,10 +10132,10 @@
       <c r="Q107" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R107" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S107" s="12">
+      <c r="R107" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S107" s="11">
         <v>35347</v>
       </c>
       <c r="T107">
@@ -10194,10 +10194,10 @@
       <c r="Q108" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R108" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S108" s="12">
+      <c r="R108" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S108" s="11">
         <v>35347</v>
       </c>
       <c r="T108">
@@ -10256,10 +10256,10 @@
       <c r="Q109" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R109" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S109" s="12">
+      <c r="R109" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S109" s="11">
         <v>35347</v>
       </c>
       <c r="T109">
@@ -10318,10 +10318,10 @@
       <c r="Q110" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R110" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S110" s="12">
+      <c r="R110" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S110" s="11">
         <v>35347</v>
       </c>
       <c r="T110">
@@ -10380,10 +10380,10 @@
       <c r="Q111" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R111" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S111" s="12">
+      <c r="R111" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S111" s="11">
         <v>35347</v>
       </c>
       <c r="T111">
@@ -10442,10 +10442,10 @@
       <c r="Q112" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R112" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S112" s="12">
+      <c r="R112" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S112" s="11">
         <v>35347</v>
       </c>
       <c r="T112">
@@ -10504,10 +10504,10 @@
       <c r="Q113" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R113" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S113" s="12">
+      <c r="R113" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S113" s="11">
         <v>35347</v>
       </c>
       <c r="T113">
@@ -10566,10 +10566,10 @@
       <c r="Q114" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R114" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S114" s="12">
+      <c r="R114" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S114" s="11">
         <v>35347</v>
       </c>
       <c r="T114">
@@ -10628,10 +10628,10 @@
       <c r="Q115" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R115" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S115" s="12">
+      <c r="R115" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S115" s="11">
         <v>35347</v>
       </c>
       <c r="T115">
@@ -10690,10 +10690,10 @@
       <c r="Q116" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R116" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S116" s="12">
+      <c r="R116" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S116" s="11">
         <v>35347</v>
       </c>
       <c r="T116">
@@ -10752,10 +10752,10 @@
       <c r="Q117" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R117" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S117" s="12">
+      <c r="R117" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S117" s="11">
         <v>35347</v>
       </c>
       <c r="T117">
@@ -10814,10 +10814,10 @@
       <c r="Q118" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R118" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S118" s="12">
+      <c r="R118" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S118" s="11">
         <v>35347</v>
       </c>
       <c r="T118">
@@ -10876,10 +10876,10 @@
       <c r="Q119" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R119" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S119" s="12">
+      <c r="R119" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S119" s="11">
         <v>35347</v>
       </c>
       <c r="T119">
@@ -10938,10 +10938,10 @@
       <c r="Q120" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R120" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S120" s="12">
+      <c r="R120" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S120" s="11">
         <v>35347</v>
       </c>
       <c r="T120">
@@ -11000,10 +11000,10 @@
       <c r="Q121" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R121" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S121" s="12">
+      <c r="R121" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S121" s="11">
         <v>35347</v>
       </c>
       <c r="T121">
@@ -11062,10 +11062,10 @@
       <c r="Q122" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R122" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S122" s="12">
+      <c r="R122" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S122" s="11">
         <v>35347</v>
       </c>
       <c r="T122">
@@ -11124,10 +11124,10 @@
       <c r="Q123" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R123" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S123" s="12">
+      <c r="R123" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S123" s="11">
         <v>35347</v>
       </c>
       <c r="T123">
@@ -11186,10 +11186,10 @@
       <c r="Q124" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R124" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S124" s="12">
+      <c r="R124" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S124" s="11">
         <v>35347</v>
       </c>
       <c r="T124">
@@ -11248,10 +11248,10 @@
       <c r="Q125" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R125" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S125" s="12">
+      <c r="R125" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S125" s="11">
         <v>35347</v>
       </c>
       <c r="T125">
@@ -11310,10 +11310,10 @@
       <c r="Q126" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R126" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S126" s="12">
+      <c r="R126" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S126" s="11">
         <v>35347</v>
       </c>
       <c r="T126">
@@ -11372,10 +11372,10 @@
       <c r="Q127" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R127" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S127" s="12">
+      <c r="R127" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S127" s="11">
         <v>35347</v>
       </c>
       <c r="T127">
@@ -11434,10 +11434,10 @@
       <c r="Q128" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R128" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S128" s="12">
+      <c r="R128" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S128" s="11">
         <v>35347</v>
       </c>
       <c r="T128">
@@ -11496,10 +11496,10 @@
       <c r="Q129" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R129" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S129" s="12">
+      <c r="R129" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S129" s="11">
         <v>35347</v>
       </c>
       <c r="T129">
@@ -11558,10 +11558,10 @@
       <c r="Q130" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R130" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S130" s="12">
+      <c r="R130" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S130" s="11">
         <v>35347</v>
       </c>
       <c r="T130">
@@ -11620,10 +11620,10 @@
       <c r="Q131" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R131" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S131" s="12">
+      <c r="R131" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S131" s="11">
         <v>35347</v>
       </c>
       <c r="T131">
@@ -11682,10 +11682,10 @@
       <c r="Q132" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R132" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S132" s="12">
+      <c r="R132" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S132" s="11">
         <v>35347</v>
       </c>
       <c r="T132">
@@ -11744,10 +11744,10 @@
       <c r="Q133" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R133" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S133" s="12">
+      <c r="R133" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S133" s="11">
         <v>35347</v>
       </c>
       <c r="T133">
@@ -11806,10 +11806,10 @@
       <c r="Q134" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R134" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S134" s="12">
+      <c r="R134" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S134" s="11">
         <v>35347</v>
       </c>
       <c r="T134">
@@ -11868,10 +11868,10 @@
       <c r="Q135" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R135" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S135" s="12">
+      <c r="R135" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S135" s="11">
         <v>35347</v>
       </c>
       <c r="T135">
@@ -11930,10 +11930,10 @@
       <c r="Q136" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R136" s="12">
-        <v>35347</v>
-      </c>
-      <c r="S136" s="12">
+      <c r="R136" s="11">
+        <v>35347</v>
+      </c>
+      <c r="S136" s="11">
         <v>35347</v>
       </c>
       <c r="T136">
